--- a/BackTest/2019-11-15 BackTest VET.xlsx
+++ b/BackTest/2019-11-15 BackTest VET.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3199999999999985</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>25.00000000000014</v>
+      </c>
       <c r="L12" t="n">
         <v>8.031000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>27.27272727272737</v>
+      </c>
       <c r="L13" t="n">
         <v>8.040000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>44.82758620689634</v>
+      </c>
       <c r="L14" t="n">
         <v>8.049000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
       <c r="L15" t="n">
         <v>8.065000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3699999999999992</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>46.66666666666674</v>
+      </c>
       <c r="L16" t="n">
         <v>8.082000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3699999999999992</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>62.96296296296262</v>
+      </c>
       <c r="L17" t="n">
         <v>8.096</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4199999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>37.49999999999952</v>
+      </c>
       <c r="L18" t="n">
         <v>8.108000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-15.38461538461496</v>
+      </c>
       <c r="L19" t="n">
         <v>8.114999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.4800000000000004</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-52.38095238095231</v>
+      </c>
       <c r="L20" t="n">
         <v>8.109999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5199999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-49.99999999999956</v>
+      </c>
       <c r="L21" t="n">
         <v>8.094999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5299999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-59.99999999999929</v>
+      </c>
       <c r="L22" t="n">
         <v>8.084</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5399999999999991</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.70370370370363</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L23" t="n">
         <v>8.072999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.5799999999999983</v>
       </c>
       <c r="K24" t="n">
-        <v>3.448275862068902</v>
+        <v>-45.45454545454633</v>
       </c>
       <c r="L24" t="n">
         <v>8.065999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K25" t="n">
-        <v>9.090909090908914</v>
+        <v>-54.54545454545527</v>
       </c>
       <c r="L25" t="n">
         <v>8.054999999999998</v>
@@ -1564,7 +1586,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="K26" t="n">
-        <v>7.142857142857006</v>
+        <v>-56.52173913043546</v>
       </c>
       <c r="L26" t="n">
         <v>8.041999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>0.6199999999999974</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.818181818181783</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L27" t="n">
         <v>8.026999999999997</v>
@@ -1662,7 +1684,7 @@
         <v>0.6299999999999972</v>
       </c>
       <c r="K28" t="n">
-        <v>1.886792452830151</v>
+        <v>-37.5000000000007</v>
       </c>
       <c r="L28" t="n">
         <v>8.015999999999996</v>
@@ -1711,7 +1733,7 @@
         <v>0.6599999999999966</v>
       </c>
       <c r="K29" t="n">
-        <v>7.142857142857006</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L29" t="n">
         <v>8.012999999999996</v>
@@ -1760,7 +1782,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K30" t="n">
-        <v>-6.122448979591703</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L30" t="n">
         <v>8.014999999999997</v>
@@ -1809,7 +1831,7 @@
         <v>0.7399999999999984</v>
       </c>
       <c r="K31" t="n">
-        <v>-27.65957446808524</v>
+        <v>14.28571428571404</v>
       </c>
       <c r="L31" t="n">
         <v>8.016999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.11111111111085</v>
+        <v>21.73913043478288</v>
       </c>
       <c r="L32" t="n">
         <v>8.022999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>0.9199999999999982</v>
       </c>
       <c r="K33" t="n">
-        <v>15.25423728813557</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L33" t="n">
         <v>8.042999999999997</v>
@@ -1962,7 +1984,7 @@
         <v>1.049999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.555555555555445</v>
+        <v>8.695652173913262</v>
       </c>
       <c r="L34" t="n">
         <v>8.045999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.239999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>13.63636363636359</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L35" t="n">
         <v>8.068999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>1.439999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>-8.41121495327104</v>
+        <v>7.317073170731782</v>
       </c>
       <c r="L36" t="n">
         <v>8.072999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.479999999999995</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.504504504504586</v>
+        <v>12.9411764705882</v>
       </c>
       <c r="L37" t="n">
         <v>8.082999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>1.479999999999995</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.756097560975636</v>
       </c>
       <c r="L38" t="n">
         <v>8.093999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>1.489999999999995</v>
       </c>
       <c r="K39" t="n">
-        <v>3.921568627450912</v>
+        <v>3.797468354430311</v>
       </c>
       <c r="L39" t="n">
         <v>8.100999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>1.499999999999995</v>
       </c>
       <c r="K40" t="n">
-        <v>3.921568627451093</v>
+        <v>7.894736842105369</v>
       </c>
       <c r="L40" t="n">
         <v>8.102999999999998</v>
@@ -2319,7 +2341,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666672</v>
+        <v>15.66265060240962</v>
       </c>
       <c r="L41" t="n">
         <v>8.118999999999998</v>
@@ -2370,7 +2392,7 @@
         <v>1.679999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>9.565217391304341</v>
+        <v>-13.15789473684212</v>
       </c>
       <c r="L42" t="n">
         <v>8.123999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>1.749999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>2.479338842975163</v>
+        <v>-5.714285714285867</v>
       </c>
       <c r="L43" t="n">
         <v>8.106999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>1.749999999999995</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.8547008547008392</v>
+        <v>-45.09803921568653</v>
       </c>
       <c r="L44" t="n">
         <v>8.102999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>1.749999999999995</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-9.677419354839117</v>
       </c>
       <c r="L45" t="n">
         <v>8.079999999999997</v>
@@ -2574,7 +2596,7 @@
         <v>1.759999999999994</v>
       </c>
       <c r="K46" t="n">
-        <v>1.724137931034451</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L46" t="n">
         <v>8.077999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>1.769999999999994</v>
       </c>
       <c r="K47" t="n">
-        <v>2.608695652173865</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="L47" t="n">
         <v>8.070999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>1.769999999999994</v>
       </c>
       <c r="K48" t="n">
-        <v>3.508771929824496</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L48" t="n">
         <v>8.063999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>1.799999999999994</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.754385964912248</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L49" t="n">
         <v>8.054999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>1.799999999999994</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.454545454545519</v>
+        <v>-90.00000000000018</v>
       </c>
       <c r="L50" t="n">
         <v>8.046999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>1.809999999999993</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.803738317756963</v>
+        <v>-84.61538461538483</v>
       </c>
       <c r="L51" t="n">
         <v>8.027999999999997</v>
@@ -2880,7 +2902,7 @@
         <v>1.839999999999993</v>
       </c>
       <c r="K52" t="n">
-        <v>-2.803738317757134</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L52" t="n">
         <v>8.019999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>1.839999999999993</v>
       </c>
       <c r="K53" t="n">
-        <v>-19.56521739130443</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L53" t="n">
         <v>8.018999999999997</v>
@@ -2982,7 +3004,7 @@
         <v>1.879999999999992</v>
       </c>
       <c r="K54" t="n">
-        <v>-10.84337349397595</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L54" t="n">
         <v>8.013999999999998</v>
@@ -3033,7 +3055,7 @@
         <v>1.899999999999991</v>
       </c>
       <c r="K55" t="n">
-        <v>-39.39393939393967</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L55" t="n">
         <v>8.010999999999997</v>
@@ -3084,7 +3106,7 @@
         <v>1.939999999999992</v>
       </c>
       <c r="K56" t="n">
-        <v>-20.00000000000028</v>
+        <v>-41.1764705882356</v>
       </c>
       <c r="L56" t="n">
         <v>8.002999999999997</v>
@@ -3135,7 +3157,7 @@
         <v>1.989999999999991</v>
       </c>
       <c r="K57" t="n">
-        <v>-37.25490196078449</v>
+        <v>-54.54545454545491</v>
       </c>
       <c r="L57" t="n">
         <v>7.990999999999997</v>
@@ -3186,7 +3208,7 @@
         <v>2.049999999999991</v>
       </c>
       <c r="K58" t="n">
-        <v>-22.8070175438598</v>
+        <v>-12.00000000000023</v>
       </c>
       <c r="L58" t="n">
         <v>7.984999999999997</v>
@@ -3237,7 +3259,7 @@
         <v>2.069999999999991</v>
       </c>
       <c r="K59" t="n">
-        <v>-17.24137931034487</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L59" t="n">
         <v>7.983999999999996</v>
@@ -3288,7 +3310,7 @@
         <v>2.129999999999992</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.761904761904681</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L60" t="n">
         <v>7.988999999999995</v>
@@ -3339,7 +3361,7 @@
         <v>2.179999999999991</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.79310344827596</v>
+        <v>23.52941176470603</v>
       </c>
       <c r="L61" t="n">
         <v>7.999999999999996</v>
@@ -3390,7 +3412,7 @@
         <v>2.289999999999992</v>
       </c>
       <c r="K62" t="n">
-        <v>18.03278688524617</v>
+        <v>42.22222222222257</v>
       </c>
       <c r="L62" t="n">
         <v>8.018999999999995</v>
@@ -3441,7 +3463,7 @@
         <v>2.329999999999993</v>
       </c>
       <c r="K63" t="n">
-        <v>24.13793103448293</v>
+        <v>42.22222222222201</v>
       </c>
       <c r="L63" t="n">
         <v>8.033999999999995</v>
@@ -3492,7 +3514,7 @@
         <v>2.329999999999993</v>
       </c>
       <c r="K64" t="n">
-        <v>24.13793103448293</v>
+        <v>39.53488372093008</v>
       </c>
       <c r="L64" t="n">
         <v>8.052999999999995</v>
@@ -3543,7 +3565,7 @@
         <v>2.369999999999992</v>
       </c>
       <c r="K65" t="n">
-        <v>16.12903225806481</v>
+        <v>39.53488372093037</v>
       </c>
       <c r="L65" t="n">
         <v>8.065999999999995</v>
@@ -3594,7 +3616,7 @@
         <v>2.439999999999991</v>
       </c>
       <c r="K66" t="n">
-        <v>23.52941176470603</v>
+        <v>64.44444444444436</v>
       </c>
       <c r="L66" t="n">
         <v>8.089999999999996</v>
@@ -3645,7 +3667,7 @@
         <v>2.439999999999991</v>
       </c>
       <c r="K67" t="n">
-        <v>25.37313432835834</v>
+        <v>58.97435897435891</v>
       </c>
       <c r="L67" t="n">
         <v>8.118999999999996</v>
@@ -3696,7 +3718,7 @@
         <v>2.509999999999989</v>
       </c>
       <c r="K68" t="n">
-        <v>13.5135135135138</v>
+        <v>31.81818181818211</v>
       </c>
       <c r="L68" t="n">
         <v>8.134999999999996</v>
@@ -3747,7 +3769,7 @@
         <v>2.509999999999989</v>
       </c>
       <c r="K69" t="n">
-        <v>18.3098591549298</v>
+        <v>21.05263157894754</v>
       </c>
       <c r="L69" t="n">
         <v>8.148999999999997</v>
@@ -3798,7 +3820,7 @@
         <v>2.539999999999988</v>
       </c>
       <c r="K70" t="n">
-        <v>21.62162162162179</v>
+        <v>16.66666666666691</v>
       </c>
       <c r="L70" t="n">
         <v>8.159999999999997</v>
@@ -3849,7 +3871,7 @@
         <v>2.539999999999988</v>
       </c>
       <c r="K71" t="n">
-        <v>23.28767123287686</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L71" t="n">
         <v>8.165999999999997</v>
@@ -3900,7 +3922,7 @@
         <v>2.549999999999988</v>
       </c>
       <c r="K72" t="n">
-        <v>21.12676056338046</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>8.161999999999997</v>
@@ -3951,7 +3973,7 @@
         <v>2.569999999999988</v>
       </c>
       <c r="K73" t="n">
-        <v>17.80821917808242</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L73" t="n">
         <v>8.159999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>2.669999999999987</v>
       </c>
       <c r="K74" t="n">
-        <v>8.860759493670972</v>
+        <v>-26.6666666666671</v>
       </c>
       <c r="L74" t="n">
         <v>8.147999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>2.729999999999986</v>
       </c>
       <c r="K75" t="n">
-        <v>13.25301204819279</v>
+        <v>-31.03448275862111</v>
       </c>
       <c r="L75" t="n">
         <v>8.145999999999997</v>
@@ -4104,7 +4126,7 @@
         <v>2.739999999999986</v>
       </c>
       <c r="K76" t="n">
-        <v>17.50000000000008</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L76" t="n">
         <v>8.135999999999997</v>
@@ -4155,7 +4177,7 @@
         <v>2.789999999999985</v>
       </c>
       <c r="K77" t="n">
-        <v>17.50000000000021</v>
+        <v>-28.57142857142902</v>
       </c>
       <c r="L77" t="n">
         <v>8.120999999999997</v>
@@ -4206,7 +4228,7 @@
         <v>2.799999999999986</v>
       </c>
       <c r="K78" t="n">
-        <v>9.333333333333307</v>
+        <v>-31.03448275862154</v>
       </c>
       <c r="L78" t="n">
         <v>8.111999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>2.839999999999986</v>
       </c>
       <c r="K79" t="n">
-        <v>1.298701298701281</v>
+        <v>-53.33333333333389</v>
       </c>
       <c r="L79" t="n">
         <v>8.098999999999998</v>
@@ -4308,7 +4330,7 @@
         <v>2.869999999999985</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.70270270270291</v>
+        <v>-39.39393939394004</v>
       </c>
       <c r="L80" t="n">
         <v>8.085999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>2.889999999999986</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.042253521126655</v>
+        <v>-35.29411764705879</v>
       </c>
       <c r="L81" t="n">
         <v>8.074999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>2.889999999999986</v>
       </c>
       <c r="K82" t="n">
-        <v>-26.66666666666694</v>
+        <v>-31.25000000000003</v>
       </c>
       <c r="L82" t="n">
         <v>8.062999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>2.889999999999986</v>
       </c>
       <c r="K83" t="n">
-        <v>-21.42857142857154</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>8.052999999999997</v>
@@ -4512,7 +4534,7 @@
         <v>2.939999999999987</v>
       </c>
       <c r="K84" t="n">
-        <v>-27.86885245901665</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L84" t="n">
         <v>8.047999999999998</v>
@@ -4563,7 +4585,7 @@
         <v>2.939999999999987</v>
       </c>
       <c r="K85" t="n">
-        <v>-22.80701754385999</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L85" t="n">
         <v>8.036999999999997</v>
@@ -4614,7 +4636,7 @@
         <v>2.949999999999987</v>
       </c>
       <c r="K86" t="n">
-        <v>-37.25490196078449</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L86" t="n">
         <v>8.027999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>2.989999999999988</v>
       </c>
       <c r="K87" t="n">
-        <v>-27.27272727272715</v>
+        <v>5.263157894737629</v>
       </c>
       <c r="L87" t="n">
         <v>8.027999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>3.009999999999987</v>
       </c>
       <c r="K88" t="n">
-        <v>-12.00000000000014</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L88" t="n">
         <v>8.031000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>3.029999999999987</v>
       </c>
       <c r="K89" t="n">
-        <v>-7.692307692307902</v>
+        <v>37.49999999999986</v>
       </c>
       <c r="L89" t="n">
         <v>8.040000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>3.109999999999987</v>
       </c>
       <c r="K90" t="n">
-        <v>-26.31578947368434</v>
+        <v>-18.18181818181855</v>
       </c>
       <c r="L90" t="n">
         <v>8.038</v>
@@ -4869,7 +4891,7 @@
         <v>3.189999999999987</v>
       </c>
       <c r="K91" t="n">
-        <v>-10.76923076923084</v>
+        <v>13.33333333333302</v>
       </c>
       <c r="L91" t="n">
         <v>8.042000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>3.199999999999987</v>
       </c>
       <c r="K92" t="n">
-        <v>-10.76923076923084</v>
+        <v>16.12903225806415</v>
       </c>
       <c r="L92" t="n">
         <v>8.047000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>3.209999999999987</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.250000000000157</v>
+        <v>40.74074074074059</v>
       </c>
       <c r="L93" t="n">
         <v>8.053000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>3.239999999999986</v>
       </c>
       <c r="K94" t="n">
-        <v>5.263157894736744</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L94" t="n">
         <v>8.061000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>3.269999999999985</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111089</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L95" t="n">
         <v>8.066000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>3.269999999999985</v>
       </c>
       <c r="K96" t="n">
-        <v>-9.433962264150754</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>8.07</v>
@@ -5175,7 +5197,7 @@
         <v>3.269999999999985</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L97" t="n">
         <v>8.07</v>
@@ -5226,7 +5248,7 @@
         <v>3.279999999999985</v>
       </c>
       <c r="K98" t="n">
-        <v>4.16666666666696</v>
+        <v>-11.99999999999983</v>
       </c>
       <c r="L98" t="n">
         <v>8.068999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>3.299999999999985</v>
       </c>
       <c r="K99" t="n">
-        <v>17.39130434782614</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L99" t="n">
         <v>8.068</v>
@@ -5328,7 +5350,7 @@
         <v>3.309999999999985</v>
       </c>
       <c r="K100" t="n">
-        <v>13.63636363636377</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>8.075999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>3.319999999999984</v>
       </c>
       <c r="K101" t="n">
-        <v>6.976744186046396</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L101" t="n">
         <v>8.074999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>3.349999999999984</v>
       </c>
       <c r="K102" t="n">
-        <v>13.04347826086937</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>8.075999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>3.399999999999983</v>
       </c>
       <c r="K103" t="n">
-        <v>1.960784313725463</v>
+        <v>-12.5</v>
       </c>
       <c r="L103" t="n">
         <v>8.071</v>
@@ -5532,7 +5554,7 @@
         <v>3.429999999999982</v>
       </c>
       <c r="K104" t="n">
-        <v>18.36734693877567</v>
+        <v>25</v>
       </c>
       <c r="L104" t="n">
         <v>8.071999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>3.469999999999983</v>
       </c>
       <c r="K105" t="n">
-        <v>24.52830188679279</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L105" t="n">
         <v>8.08</v>
@@ -5634,7 +5656,7 @@
         <v>3.479999999999983</v>
       </c>
       <c r="K106" t="n">
-        <v>24.52830188679279</v>
+        <v>42.85714285714334</v>
       </c>
       <c r="L106" t="n">
         <v>8.089</v>
@@ -5685,7 +5707,7 @@
         <v>3.499999999999984</v>
       </c>
       <c r="K107" t="n">
-        <v>13.72549019607824</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L107" t="n">
         <v>8.096</v>
@@ -5736,7 +5758,7 @@
         <v>3.509999999999986</v>
       </c>
       <c r="K108" t="n">
-        <v>12.00000000000014</v>
+        <v>23.80952380952405</v>
       </c>
       <c r="L108" t="n">
         <v>8.103</v>
@@ -5787,7 +5809,7 @@
         <v>3.559999999999985</v>
       </c>
       <c r="K109" t="n">
-        <v>16.98113207547175</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L109" t="n">
         <v>8.113000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>3.559999999999985</v>
       </c>
       <c r="K110" t="n">
-        <v>37.77777777777797</v>
+        <v>41.66666666666648</v>
       </c>
       <c r="L110" t="n">
         <v>8.122</v>
@@ -5889,7 +5911,7 @@
         <v>3.569999999999984</v>
       </c>
       <c r="K111" t="n">
-        <v>21.05263157894754</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L111" t="n">
         <v>8.131</v>
@@ -5940,7 +5962,7 @@
         <v>3.589999999999984</v>
       </c>
       <c r="K112" t="n">
-        <v>12.8205128205131</v>
+        <v>47.36842105263118</v>
       </c>
       <c r="L112" t="n">
         <v>8.135000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>3.599999999999984</v>
       </c>
       <c r="K113" t="n">
-        <v>12.8205128205131</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L113" t="n">
         <v>8.145</v>
@@ -6042,7 +6064,7 @@
         <v>3.599999999999984</v>
       </c>
       <c r="K114" t="n">
-        <v>22.22222222222239</v>
+        <v>23.07692307692244</v>
       </c>
       <c r="L114" t="n">
         <v>8.151999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>3.599999999999984</v>
       </c>
       <c r="K115" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L115" t="n">
         <v>8.154999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>3.609999999999983</v>
       </c>
       <c r="K116" t="n">
-        <v>35.29411764705879</v>
+        <v>45.45454545454633</v>
       </c>
       <c r="L116" t="n">
         <v>8.157999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>3.619999999999983</v>
       </c>
       <c r="K117" t="n">
-        <v>37.14285714285708</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L117" t="n">
         <v>8.163999999999998</v>
@@ -6246,7 +6268,7 @@
         <v>3.739999999999984</v>
       </c>
       <c r="K118" t="n">
-        <v>52.17391304347841</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L118" t="n">
         <v>8.180999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>3.759999999999986</v>
       </c>
       <c r="K119" t="n">
-        <v>43.47826086956498</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L119" t="n">
         <v>8.190999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>3.769999999999985</v>
       </c>
       <c r="K120" t="n">
-        <v>39.13043478260856</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L120" t="n">
         <v>8.199999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>3.769999999999985</v>
       </c>
       <c r="K121" t="n">
-        <v>42.22222222222201</v>
+        <v>66.66666666666568</v>
       </c>
       <c r="L121" t="n">
         <v>8.209999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>3.809999999999986</v>
       </c>
       <c r="K122" t="n">
-        <v>43.4782608695652</v>
+        <v>71.42857142857071</v>
       </c>
       <c r="L122" t="n">
         <v>8.225999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>3.809999999999986</v>
       </c>
       <c r="K123" t="n">
-        <v>60.97560975609701</v>
+        <v>71.42857142857071</v>
       </c>
       <c r="L123" t="n">
         <v>8.241</v>
@@ -6552,7 +6574,7 @@
         <v>3.819999999999986</v>
       </c>
       <c r="K124" t="n">
-        <v>53.8461538461535</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L124" t="n">
         <v>8.254999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>3.859999999999985</v>
       </c>
       <c r="K125" t="n">
-        <v>53.84615384615329</v>
+        <v>67.99999999999949</v>
       </c>
       <c r="L125" t="n">
         <v>8.273</v>
@@ -6654,7 +6676,7 @@
         <v>3.859999999999985</v>
       </c>
       <c r="K126" t="n">
-        <v>52.63157894736788</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L126" t="n">
         <v>8.290000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>3.889999999999985</v>
       </c>
       <c r="K127" t="n">
-        <v>64.102564102564</v>
+        <v>46.66666666666556</v>
       </c>
       <c r="L127" t="n">
         <v>8.309000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>3.889999999999985</v>
       </c>
       <c r="K128" t="n">
-        <v>63.15789473684185</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L128" t="n">
         <v>8.316000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>3.909999999999986</v>
       </c>
       <c r="K129" t="n">
-        <v>60</v>
+        <v>85.71428571428608</v>
       </c>
       <c r="L129" t="n">
         <v>8.327000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>3.919999999999986</v>
       </c>
       <c r="K130" t="n">
-        <v>55.55555555555567</v>
+        <v>73.33333333333397</v>
       </c>
       <c r="L130" t="n">
         <v>8.338000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>3.969999999999986</v>
       </c>
       <c r="K131" t="n">
-        <v>39.99999999999982</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L131" t="n">
         <v>8.344000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>4.059999999999986</v>
       </c>
       <c r="K132" t="n">
-        <v>57.44680851063791</v>
+        <v>43.99999999999977</v>
       </c>
       <c r="L132" t="n">
         <v>8.355</v>
@@ -7011,7 +7033,7 @@
         <v>4.069999999999986</v>
       </c>
       <c r="K133" t="n">
-        <v>57.44680851063791</v>
+        <v>51.9999999999996</v>
       </c>
       <c r="L133" t="n">
         <v>8.367000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>4.069999999999986</v>
       </c>
       <c r="K134" t="n">
-        <v>57.44680851063791</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L134" t="n">
         <v>8.380000000000003</v>
@@ -7113,7 +7135,7 @@
         <v>4.069999999999986</v>
       </c>
       <c r="K135" t="n">
-        <v>57.44680851063791</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L135" t="n">
         <v>8.389000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>4.069999999999986</v>
       </c>
       <c r="K136" t="n">
-        <v>56.52173913043441</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>8.398000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>4.089999999999986</v>
       </c>
       <c r="K137" t="n">
-        <v>48.93617021276579</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L137" t="n">
         <v>8.402000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>4.089999999999986</v>
       </c>
       <c r="K138" t="n">
-        <v>31.42857142857114</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L138" t="n">
         <v>8.406000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>4.089999999999986</v>
       </c>
       <c r="K139" t="n">
-        <v>39.39393939393962</v>
+        <v>17.64705882352904</v>
       </c>
       <c r="L139" t="n">
         <v>8.407999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>4.109999999999985</v>
       </c>
       <c r="K140" t="n">
-        <v>47.05882352941182</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L140" t="n">
         <v>8.413</v>
@@ -7419,7 +7441,7 @@
         <v>4.109999999999985</v>
       </c>
       <c r="K141" t="n">
-        <v>47.05882352941182</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>8.423</v>
@@ -7470,7 +7492,7 @@
         <v>4.109999999999985</v>
       </c>
       <c r="K142" t="n">
-        <v>39.99999999999988</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>8.423999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>4.109999999999985</v>
       </c>
       <c r="K143" t="n">
-        <v>39.99999999999988</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>8.423999999999998</v>
@@ -7572,7 +7594,7 @@
         <v>4.129999999999985</v>
       </c>
       <c r="K144" t="n">
-        <v>35.4838709677419</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>8.421999999999997</v>
@@ -7623,7 +7645,7 @@
         <v>4.169999999999984</v>
       </c>
       <c r="K145" t="n">
-        <v>35.4838709677419</v>
+        <v>20</v>
       </c>
       <c r="L145" t="n">
         <v>8.423999999999998</v>
@@ -7674,7 +7696,7 @@
         <v>4.199999999999985</v>
       </c>
       <c r="K146" t="n">
-        <v>41.17647058823548</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L146" t="n">
         <v>8.428999999999998</v>
@@ -7725,7 +7747,7 @@
         <v>4.219999999999985</v>
       </c>
       <c r="K147" t="n">
-        <v>39.39393939393962</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L147" t="n">
         <v>8.437999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>4.259999999999984</v>
       </c>
       <c r="K148" t="n">
-        <v>24.32432432432482</v>
+        <v>29.41176470588309</v>
       </c>
       <c r="L148" t="n">
         <v>8.443000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>4.259999999999984</v>
       </c>
       <c r="K149" t="n">
-        <v>20.0000000000002</v>
+        <v>20.00000000000095</v>
       </c>
       <c r="L149" t="n">
         <v>8.448000000000002</v>
@@ -7878,7 +7900,7 @@
         <v>4.379999999999985</v>
       </c>
       <c r="K150" t="n">
-        <v>-8.695652173913262</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>8.439000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>4.439999999999985</v>
       </c>
       <c r="K151" t="n">
-        <v>14.89361702127669</v>
+        <v>-9.090909090908896</v>
       </c>
       <c r="L151" t="n">
         <v>8.436000000000002</v>
@@ -7980,7 +8002,7 @@
         <v>4.439999999999985</v>
       </c>
       <c r="K152" t="n">
-        <v>-5.263157894736744</v>
+        <v>-9.090909090908896</v>
       </c>
       <c r="L152" t="n">
         <v>8.433000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>4.449999999999985</v>
       </c>
       <c r="K153" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>8.431000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>4.459999999999985</v>
       </c>
       <c r="K154" t="n">
-        <v>-2.564102564102518</v>
+        <v>-10.34482758620664</v>
       </c>
       <c r="L154" t="n">
         <v>8.432</v>
@@ -8133,7 +8155,7 @@
         <v>4.559999999999985</v>
       </c>
       <c r="K155" t="n">
-        <v>-22.44897959183669</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L155" t="n">
         <v>8.419</v>
@@ -8184,7 +8206,7 @@
         <v>4.579999999999984</v>
       </c>
       <c r="K156" t="n">
-        <v>-17.64705882352945</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L156" t="n">
         <v>8.405000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>4.579999999999984</v>
       </c>
       <c r="K157" t="n">
-        <v>-14.28571428571439</v>
+        <v>-37.50000000000028</v>
       </c>
       <c r="L157" t="n">
         <v>8.389000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>4.609999999999983</v>
       </c>
       <c r="K158" t="n">
-        <v>-19.23076923076924</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L158" t="n">
         <v>8.374000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>4.649999999999983</v>
       </c>
       <c r="K159" t="n">
-        <v>-10.71428571428586</v>
+        <v>3.703703703703655</v>
       </c>
       <c r="L159" t="n">
         <v>8.363</v>
@@ -8388,7 +8410,7 @@
         <v>4.659999999999982</v>
       </c>
       <c r="K160" t="n">
-        <v>-16.36363636363642</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L160" t="n">
         <v>8.363</v>
@@ -8439,7 +8461,7 @@
         <v>4.669999999999982</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.28571428571438</v>
+        <v>-21.73913043478321</v>
       </c>
       <c r="L161" t="n">
         <v>8.357999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>4.719999999999983</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.91803278688516</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L162" t="n">
         <v>8.357999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>4.729999999999983</v>
       </c>
       <c r="K163" t="n">
-        <v>-3.225806451612848</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L163" t="n">
         <v>8.357999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>4.749999999999982</v>
       </c>
       <c r="K164" t="n">
-        <v>-3.225806451612848</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L164" t="n">
         <v>8.354999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>4.789999999999983</v>
       </c>
       <c r="K165" t="n">
-        <v>-16.12903225806448</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L165" t="n">
         <v>8.357999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>4.799999999999983</v>
       </c>
       <c r="K166" t="n">
-        <v>-23.33333333333351</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>8.357999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>4.859999999999983</v>
       </c>
       <c r="K167" t="n">
-        <v>-15.62499999999998</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L167" t="n">
         <v>8.363999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>4.879999999999983</v>
       </c>
       <c r="K168" t="n">
-        <v>-12.90322580645164</v>
+        <v>13.04347826087004</v>
       </c>
       <c r="L168" t="n">
         <v>8.370999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>4.909999999999982</v>
       </c>
       <c r="K169" t="n">
-        <v>-7.692307692307819</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L169" t="n">
         <v>8.376999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>4.999999999999982</v>
       </c>
       <c r="K170" t="n">
-        <v>25.80645161290335</v>
+        <v>45.45454545454555</v>
       </c>
       <c r="L170" t="n">
         <v>8.392999999999997</v>
@@ -8949,7 +8971,7 @@
         <v>4.999999999999982</v>
       </c>
       <c r="K171" t="n">
-        <v>17.85714285714289</v>
+        <v>35.71428571428567</v>
       </c>
       <c r="L171" t="n">
         <v>8.407999999999998</v>
@@ -9000,7 +9022,7 @@
         <v>4.999999999999982</v>
       </c>
       <c r="K172" t="n">
-        <v>17.85714285714289</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>8.417999999999997</v>
@@ -9051,7 +9073,7 @@
         <v>4.999999999999982</v>
       </c>
       <c r="K173" t="n">
-        <v>16.36363636363642</v>
+        <v>43.99999999999977</v>
       </c>
       <c r="L173" t="n">
         <v>8.426999999999998</v>
@@ -9102,7 +9124,7 @@
         <v>4.999999999999982</v>
       </c>
       <c r="K174" t="n">
-        <v>14.8148148148149</v>
+        <v>71.42857142857191</v>
       </c>
       <c r="L174" t="n">
         <v>8.437999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>5.009999999999982</v>
       </c>
       <c r="K175" t="n">
-        <v>42.22222222222234</v>
+        <v>80.95238095238128</v>
       </c>
       <c r="L175" t="n">
         <v>8.453999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>5.059999999999983</v>
       </c>
       <c r="K176" t="n">
-        <v>45.8333333333336</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L176" t="n">
         <v>8.475999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>5.099999999999982</v>
       </c>
       <c r="K177" t="n">
-        <v>50.00000000000016</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>8.495999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>5.149999999999983</v>
       </c>
       <c r="K178" t="n">
-        <v>62.96296296296303</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>8.523</v>
@@ -9357,7 +9379,7 @@
         <v>5.149999999999983</v>
       </c>
       <c r="K179" t="n">
-        <v>60.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>8.547000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>5.149999999999983</v>
       </c>
       <c r="K180" t="n">
-        <v>63.26530612244905</v>
+        <v>100</v>
       </c>
       <c r="L180" t="n">
         <v>8.562000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>5.149999999999983</v>
       </c>
       <c r="K181" t="n">
-        <v>62.50000000000009</v>
+        <v>100</v>
       </c>
       <c r="L181" t="n">
         <v>8.577000000000002</v>
@@ -9510,7 +9532,7 @@
         <v>5.149999999999983</v>
       </c>
       <c r="K182" t="n">
-        <v>58.13953488372097</v>
+        <v>100</v>
       </c>
       <c r="L182" t="n">
         <v>8.592000000000002</v>
@@ -9561,7 +9583,7 @@
         <v>5.269999999999984</v>
       </c>
       <c r="K183" t="n">
-        <v>22.22222222222204</v>
+        <v>11.11111111111082</v>
       </c>
       <c r="L183" t="n">
         <v>8.595000000000002</v>
@@ -9612,7 +9634,7 @@
         <v>5.309999999999985</v>
       </c>
       <c r="K184" t="n">
-        <v>32.14285714285696</v>
+        <v>20</v>
       </c>
       <c r="L184" t="n">
         <v>8.602</v>
@@ -9663,7 +9685,7 @@
         <v>5.309999999999985</v>
       </c>
       <c r="K185" t="n">
-        <v>42.30769230769232</v>
+        <v>3.999999999999886</v>
       </c>
       <c r="L185" t="n">
         <v>8.608000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>5.339999999999986</v>
       </c>
       <c r="K186" t="n">
-        <v>37.03703703703672</v>
+        <v>-24.99999999999982</v>
       </c>
       <c r="L186" t="n">
         <v>8.606</v>
@@ -9765,7 +9787,7 @@
         <v>5.349999999999987</v>
       </c>
       <c r="K187" t="n">
-        <v>30.61224489795902</v>
+        <v>-49.99999999999866</v>
       </c>
       <c r="L187" t="n">
         <v>8.601000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>5.389999999999986</v>
       </c>
       <c r="K188" t="n">
-        <v>41.17647058823484</v>
+        <v>-24.99999999999982</v>
       </c>
       <c r="L188" t="n">
         <v>8.595000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>5.399999999999986</v>
       </c>
       <c r="K189" t="n">
-        <v>34.69387755102012</v>
+        <v>-27.99999999999972</v>
       </c>
       <c r="L189" t="n">
         <v>8.587999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>5.519999999999985</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.692307692307482</v>
+        <v>-51.35135135135083</v>
       </c>
       <c r="L190" t="n">
         <v>8.568999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>5.549999999999985</v>
       </c>
       <c r="K191" t="n">
-        <v>-1.818181818181771</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L191" t="n">
         <v>8.552999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>5.609999999999985</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.47540983606556</v>
+        <v>-29.41176470588211</v>
       </c>
       <c r="L192" t="n">
         <v>8.530999999999997</v>
@@ -10071,7 +10093,7 @@
         <v>5.719999999999985</v>
       </c>
       <c r="K193" t="n">
-        <v>-24.99999999999988</v>
+        <v>-60.97560975609754</v>
       </c>
       <c r="L193" t="n">
         <v>8.509999999999996</v>
@@ -10122,7 +10144,7 @@
         <v>5.769999999999984</v>
       </c>
       <c r="K194" t="n">
-        <v>-16.88311688311695</v>
+        <v>-43.47826086956554</v>
       </c>
       <c r="L194" t="n">
         <v>8.489999999999998</v>
@@ -10173,7 +10195,7 @@
         <v>5.779999999999983</v>
       </c>
       <c r="K195" t="n">
-        <v>-19.48051948051949</v>
+        <v>-40.90909090909106</v>
       </c>
       <c r="L195" t="n">
         <v>8.468999999999998</v>
@@ -10224,7 +10246,7 @@
         <v>5.789999999999983</v>
       </c>
       <c r="K196" t="n">
-        <v>-26.02739726027413</v>
+        <v>-40.90909090909162</v>
       </c>
       <c r="L196" t="n">
         <v>8.451999999999998</v>
@@ -10275,7 +10297,7 @@
         <v>5.789999999999983</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.0000000000006</v>
       </c>
       <c r="L197" t="n">
         <v>8.433999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>5.819999999999984</v>
       </c>
       <c r="K198" t="n">
-        <v>-37.3134328358208</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L198" t="n">
         <v>8.414999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>5.869999999999983</v>
       </c>
       <c r="K199" t="n">
-        <v>-27.7777777777779</v>
+        <v>-2.857142857143321</v>
       </c>
       <c r="L199" t="n">
         <v>8.401999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>5.869999999999983</v>
       </c>
       <c r="K200" t="n">
-        <v>-27.7777777777779</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L200" t="n">
         <v>8.401</v>
@@ -10479,7 +10501,7 @@
         <v>5.879999999999985</v>
       </c>
       <c r="K201" t="n">
-        <v>-26.02739726027383</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L201" t="n">
         <v>8.398</v>
@@ -10530,7 +10552,7 @@
         <v>5.909999999999984</v>
       </c>
       <c r="K202" t="n">
-        <v>-21.05263157894735</v>
+        <v>89.47368421052651</v>
       </c>
       <c r="L202" t="n">
         <v>8.404</v>
@@ -10581,7 +10603,7 @@
         <v>5.909999999999984</v>
       </c>
       <c r="K203" t="n">
-        <v>-6.249999999999861</v>
+        <v>85.71428571428608</v>
       </c>
       <c r="L203" t="n">
         <v>8.420999999999998</v>
@@ -10632,7 +10654,7 @@
         <v>5.919999999999984</v>
       </c>
       <c r="K204" t="n">
-        <v>-14.75409836065573</v>
+        <v>85.71428571428608</v>
       </c>
       <c r="L204" t="n">
         <v>8.431999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>5.929999999999984</v>
       </c>
       <c r="K205" t="n">
-        <v>-12.90322580645164</v>
+        <v>85.71428571428608</v>
       </c>
       <c r="L205" t="n">
         <v>8.444999999999997</v>
@@ -10734,7 +10756,7 @@
         <v>5.959999999999983</v>
       </c>
       <c r="K206" t="n">
-        <v>-12.90322580645139</v>
+        <v>52.94117647058923</v>
       </c>
       <c r="L206" t="n">
         <v>8.453999999999997</v>
@@ -10785,7 +10807,7 @@
         <v>5.979999999999984</v>
       </c>
       <c r="K207" t="n">
-        <v>-17.46031746031773</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L207" t="n">
         <v>8.460999999999995</v>
@@ -10836,7 +10858,7 @@
         <v>6.009999999999984</v>
       </c>
       <c r="K208" t="n">
-        <v>-29.0322580645162</v>
+        <v>-28.57142857142785</v>
       </c>
       <c r="L208" t="n">
         <v>8.461999999999994</v>
@@ -10887,7 +10909,7 @@
         <v>6.019999999999984</v>
       </c>
       <c r="K209" t="n">
-        <v>-29.0322580645162</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L209" t="n">
         <v>8.456999999999995</v>
@@ -10938,7 +10960,7 @@
         <v>6.019999999999984</v>
       </c>
       <c r="K210" t="n">
-        <v>-12.00000000000014</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L210" t="n">
         <v>8.451999999999995</v>
@@ -10989,7 +11011,7 @@
         <v>6.019999999999984</v>
       </c>
       <c r="K211" t="n">
-        <v>-19.14893617021278</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L211" t="n">
         <v>8.445999999999994</v>
@@ -11040,7 +11062,7 @@
         <v>6.049999999999985</v>
       </c>
       <c r="K212" t="n">
-        <v>-13.63636363636377</v>
+        <v>-85.71428571428608</v>
       </c>
       <c r="L212" t="n">
         <v>8.433999999999996</v>
@@ -11091,7 +11113,7 @@
         <v>6.079999999999986</v>
       </c>
       <c r="K213" t="n">
-        <v>22.22222222222217</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L213" t="n">
         <v>8.424999999999997</v>
@@ -11142,7 +11164,7 @@
         <v>6.109999999999987</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-66.666666666666</v>
       </c>
       <c r="L214" t="n">
         <v>8.413999999999998</v>
@@ -11193,7 +11215,7 @@
         <v>6.119999999999989</v>
       </c>
       <c r="K215" t="n">
-        <v>5.882352941176778</v>
+        <v>-49.99999999999834</v>
       </c>
       <c r="L215" t="n">
         <v>8.402999999999997</v>
@@ -11244,7 +11266,7 @@
         <v>6.159999999999989</v>
       </c>
       <c r="K216" t="n">
-        <v>-8.108108108107796</v>
+        <v>-55.5555555555538</v>
       </c>
       <c r="L216" t="n">
         <v>8.390999999999996</v>
@@ -11295,7 +11317,7 @@
         <v>6.249999999999989</v>
       </c>
       <c r="K217" t="n">
-        <v>13.0434782608695</v>
+        <v>8.333333333332964</v>
       </c>
       <c r="L217" t="n">
         <v>8.389999999999997</v>
@@ -11346,7 +11368,7 @@
         <v>6.249999999999989</v>
       </c>
       <c r="K218" t="n">
-        <v>6.976744186046282</v>
+        <v>13.04347826086896</v>
       </c>
       <c r="L218" t="n">
         <v>8.391999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>6.259999999999989</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.692307692307413</v>
+        <v>8.333333333332964</v>
       </c>
       <c r="L219" t="n">
         <v>8.393999999999998</v>
@@ -11448,7 +11470,7 @@
         <v>6.269999999999989</v>
       </c>
       <c r="K220" t="n">
-        <v>-4.999999999999822</v>
+        <v>11.99999999999949</v>
       </c>
       <c r="L220" t="n">
         <v>8.396999999999997</v>
@@ -11499,7 +11521,7 @@
         <v>6.379999999999988</v>
       </c>
       <c r="K221" t="n">
-        <v>-27.99999999999991</v>
+        <v>-15.15151515151466</v>
       </c>
       <c r="L221" t="n">
         <v>8.388999999999996</v>
@@ -11550,7 +11572,7 @@
         <v>6.479999999999988</v>
       </c>
       <c r="K222" t="n">
-        <v>-12.28070175438593</v>
+        <v>4.999999999999867</v>
       </c>
       <c r="L222" t="n">
         <v>8.393999999999995</v>
@@ -11601,7 +11623,7 @@
         <v>6.499999999999988</v>
       </c>
       <c r="K223" t="n">
-        <v>-8.474576271186512</v>
+        <v>17.948717948718</v>
       </c>
       <c r="L223" t="n">
         <v>8.397999999999994</v>
@@ -11652,7 +11674,7 @@
         <v>6.509999999999987</v>
       </c>
       <c r="K224" t="n">
-        <v>-5.084745762712028</v>
+        <v>17.94871794871762</v>
       </c>
       <c r="L224" t="n">
         <v>8.405999999999995</v>
@@ -11703,7 +11725,7 @@
         <v>6.519999999999987</v>
       </c>
       <c r="K225" t="n">
-        <v>-8.474576271186512</v>
+        <v>27.77777777777786</v>
       </c>
       <c r="L225" t="n">
         <v>8.411999999999995</v>
@@ -11754,7 +11776,7 @@
         <v>6.569999999999986</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.47540983606556</v>
+        <v>-12.49999999999986</v>
       </c>
       <c r="L226" t="n">
         <v>8.416999999999994</v>
@@ -11805,7 +11827,7 @@
         <v>6.569999999999986</v>
       </c>
       <c r="K227" t="n">
-        <v>-8.474576271186237</v>
+        <v>-12.49999999999986</v>
       </c>
       <c r="L227" t="n">
         <v>8.412999999999993</v>
@@ -11856,7 +11878,7 @@
         <v>6.599999999999987</v>
       </c>
       <c r="K228" t="n">
-        <v>-8.474576271186512</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L228" t="n">
         <v>8.405999999999995</v>
@@ -11907,7 +11929,7 @@
         <v>6.629999999999988</v>
       </c>
       <c r="K229" t="n">
-        <v>-1.639344262295034</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L229" t="n">
         <v>8.402999999999995</v>
@@ -11958,7 +11980,7 @@
         <v>6.659999999999989</v>
       </c>
       <c r="K230" t="n">
-        <v>-6.250000000000086</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L230" t="n">
         <v>8.395999999999995</v>
@@ -12009,7 +12031,7 @@
         <v>6.689999999999991</v>
       </c>
       <c r="K231" t="n">
-        <v>-1.492537313432788</v>
+        <v>-14.2857142857138</v>
       </c>
       <c r="L231" t="n">
         <v>8.402999999999995</v>
@@ -12060,7 +12082,7 @@
         <v>6.69999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>4.61538461538475</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L232" t="n">
         <v>8.400999999999994</v>
@@ -12111,7 +12133,7 @@
         <v>6.72999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>4.61538461538449</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L233" t="n">
         <v>8.399999999999995</v>
@@ -12162,7 +12184,7 @@
         <v>6.78999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>17.64705882352947</v>
+        <v>18.51851851851857</v>
       </c>
       <c r="L234" t="n">
         <v>8.403999999999993</v>
@@ -12213,7 +12235,7 @@
         <v>6.829999999999989</v>
       </c>
       <c r="K235" t="n">
-        <v>21.12676056338006</v>
+        <v>53.84615384615269</v>
       </c>
       <c r="L235" t="n">
         <v>8.412999999999993</v>
@@ -12264,7 +12286,7 @@
         <v>6.849999999999989</v>
       </c>
       <c r="K236" t="n">
-        <v>24.6376811594203</v>
+        <v>42.85714285714214</v>
       </c>
       <c r="L236" t="n">
         <v>8.424999999999994</v>
@@ -12315,7 +12337,7 @@
         <v>6.869999999999989</v>
       </c>
       <c r="K237" t="n">
-        <v>16.12903225806448</v>
+        <v>62.96296296296262</v>
       </c>
       <c r="L237" t="n">
         <v>8.438999999999995</v>
@@ -12366,7 +12388,7 @@
         <v>6.88999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>18.75000000000014</v>
+        <v>61.53846153846122</v>
       </c>
       <c r="L238" t="n">
         <v>8.457999999999995</v>
@@ -12417,7 +12439,7 @@
         <v>6.88999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>20.63492063492073</v>
+        <v>82.60869565217432</v>
       </c>
       <c r="L239" t="n">
         <v>8.473999999999993</v>
@@ -12468,7 +12490,7 @@
         <v>6.88999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>19.35483870967755</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L240" t="n">
         <v>8.492999999999993</v>
@@ -12519,7 +12541,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K241" t="n">
-        <v>42.30769230769184</v>
+        <v>69.99999999999902</v>
       </c>
       <c r="L241" t="n">
         <v>8.507999999999994</v>
@@ -12570,7 +12592,7 @@
         <v>6.939999999999992</v>
       </c>
       <c r="K242" t="n">
-        <v>34.78260869565187</v>
+        <v>71.42857142857071</v>
       </c>
       <c r="L242" t="n">
         <v>8.525999999999993</v>
@@ -12621,7 +12643,7 @@
         <v>6.959999999999992</v>
       </c>
       <c r="K243" t="n">
-        <v>34.78260869565187</v>
+        <v>64.70588235294019</v>
       </c>
       <c r="L243" t="n">
         <v>8.542999999999992</v>
@@ -12672,7 +12694,7 @@
         <v>6.989999999999993</v>
       </c>
       <c r="K244" t="n">
-        <v>37.49999999999986</v>
+        <v>62.49999999999945</v>
       </c>
       <c r="L244" t="n">
         <v>8.556999999999992</v>
@@ -12723,7 +12745,7 @@
         <v>6.989999999999993</v>
       </c>
       <c r="K245" t="n">
-        <v>40.42553191489338</v>
+        <v>85.7142857142839</v>
       </c>
       <c r="L245" t="n">
         <v>8.566999999999991</v>
@@ -12774,7 +12796,7 @@
         <v>7.039999999999992</v>
       </c>
       <c r="K246" t="n">
-        <v>61.70212765957351</v>
+        <v>88.23529411764545</v>
       </c>
       <c r="L246" t="n">
         <v>8.583999999999991</v>
@@ -12825,7 +12847,7 @@
         <v>7.059999999999992</v>
       </c>
       <c r="K247" t="n">
-        <v>63.26530612244801</v>
+        <v>88.23529411764534</v>
       </c>
       <c r="L247" t="n">
         <v>8.60099999999999</v>
@@ -12876,7 +12898,7 @@
         <v>7.089999999999993</v>
       </c>
       <c r="K248" t="n">
-        <v>75.510204081632</v>
+        <v>89.99999999999858</v>
       </c>
       <c r="L248" t="n">
         <v>8.618999999999991</v>
@@ -12927,7 +12949,7 @@
         <v>7.089999999999993</v>
       </c>
       <c r="K249" t="n">
-        <v>73.91304347826014</v>
+        <v>89.99999999999858</v>
       </c>
       <c r="L249" t="n">
         <v>8.636999999999992</v>
@@ -12978,7 +13000,7 @@
         <v>7.089999999999993</v>
       </c>
       <c r="K250" t="n">
-        <v>86.04651162790655</v>
+        <v>100</v>
       </c>
       <c r="L250" t="n">
         <v>8.654999999999992</v>
@@ -13029,7 +13051,7 @@
         <v>7.169999999999993</v>
       </c>
       <c r="K251" t="n">
-        <v>54.16666666666637</v>
+        <v>30.43478260869572</v>
       </c>
       <c r="L251" t="n">
         <v>8.665999999999993</v>
@@ -13080,7 +13102,7 @@
         <v>7.209999999999992</v>
       </c>
       <c r="K252" t="n">
-        <v>56.86274509803887</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L252" t="n">
         <v>8.676999999999994</v>
@@ -13131,7 +13153,7 @@
         <v>7.249999999999991</v>
       </c>
       <c r="K253" t="n">
-        <v>42.30769230769232</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L253" t="n">
         <v>8.681999999999995</v>
@@ -13182,7 +13204,7 @@
         <v>7.329999999999991</v>
       </c>
       <c r="K254" t="n">
-        <v>44.44444444444441</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L254" t="n">
         <v>8.691999999999997</v>
@@ -13233,7 +13255,7 @@
         <v>7.329999999999991</v>
       </c>
       <c r="K255" t="n">
-        <v>40.00000000000007</v>
+        <v>17.24137931034512</v>
       </c>
       <c r="L255" t="n">
         <v>8.701999999999996</v>
@@ -13284,7 +13306,7 @@
         <v>7.329999999999991</v>
       </c>
       <c r="K256" t="n">
-        <v>45.83333333333325</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L256" t="n">
         <v>8.706999999999997</v>
@@ -13335,7 +13357,7 @@
         <v>7.329999999999991</v>
       </c>
       <c r="K257" t="n">
-        <v>43.4782608695652</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>8.709999999999997</v>
@@ -13386,7 +13408,7 @@
         <v>7.359999999999991</v>
       </c>
       <c r="K258" t="n">
-        <v>44.68085106382953</v>
+        <v>11.11111111111097</v>
       </c>
       <c r="L258" t="n">
         <v>8.712999999999997</v>
@@ -13437,7 +13459,7 @@
         <v>7.429999999999991</v>
       </c>
       <c r="K259" t="n">
-        <v>25.92592592592566</v>
+        <v>-11.76470588235328</v>
       </c>
       <c r="L259" t="n">
         <v>8.708999999999996</v>
@@ -13488,7 +13510,7 @@
         <v>7.46999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>17.24137931034477</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>8.700999999999997</v>
@@ -13539,7 +13561,7 @@
         <v>7.46999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>19.29824561403535</v>
+        <v>-15.38461538461517</v>
       </c>
       <c r="L261" t="n">
         <v>8.700999999999997</v>
@@ -13590,7 +13612,7 @@
         <v>7.499999999999989</v>
       </c>
       <c r="K262" t="n">
-        <v>17.85714285714289</v>
+        <v>11.99999999999983</v>
       </c>
       <c r="L262" t="n">
         <v>8.699999999999998</v>
@@ -13641,7 +13663,7 @@
         <v>7.529999999999989</v>
       </c>
       <c r="K263" t="n">
-        <v>8.771929824561578</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L263" t="n">
         <v>8.699999999999998</v>
@@ -13692,7 +13714,7 @@
         <v>7.549999999999988</v>
       </c>
       <c r="K264" t="n">
-        <v>7.142857142857053</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L264" t="n">
         <v>8.693999999999997</v>
@@ -13743,7 +13765,7 @@
         <v>7.599999999999989</v>
       </c>
       <c r="K265" t="n">
-        <v>14.75409836065582</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L265" t="n">
         <v>8.692999999999996</v>
@@ -13794,7 +13816,7 @@
         <v>7.609999999999989</v>
       </c>
       <c r="K266" t="n">
-        <v>8.771929824561578</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>8.692999999999996</v>
@@ -13845,7 +13867,7 @@
         <v>7.639999999999988</v>
       </c>
       <c r="K267" t="n">
-        <v>10.34482758620704</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>8.695999999999996</v>
@@ -13896,7 +13918,7 @@
         <v>7.639999999999988</v>
       </c>
       <c r="K268" t="n">
-        <v>5.454545454545384</v>
+        <v>33.3333333333339</v>
       </c>
       <c r="L268" t="n">
         <v>8.695999999999996</v>
@@ -13947,7 +13969,7 @@
         <v>7.659999999999988</v>
       </c>
       <c r="K269" t="n">
-        <v>8.771929824561294</v>
+        <v>68.42105263157924</v>
       </c>
       <c r="L269" t="n">
         <v>8.704999999999997</v>
@@ -13998,7 +14020,7 @@
         <v>7.679999999999989</v>
       </c>
       <c r="K270" t="n">
-        <v>11.86440677966114</v>
+        <v>71.42857142857191</v>
       </c>
       <c r="L270" t="n">
         <v>8.719999999999995</v>
@@ -14049,7 +14071,7 @@
         <v>7.679999999999989</v>
       </c>
       <c r="K271" t="n">
-        <v>29.41176470588264</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L271" t="n">
         <v>8.734999999999996</v>
@@ -14100,7 +14122,7 @@
         <v>7.679999999999989</v>
       </c>
       <c r="K272" t="n">
-        <v>23.40425531914934</v>
+        <v>100</v>
       </c>
       <c r="L272" t="n">
         <v>8.746999999999995</v>
@@ -14151,7 +14173,7 @@
         <v>7.679999999999989</v>
       </c>
       <c r="K273" t="n">
-        <v>34.88372093023281</v>
+        <v>100</v>
       </c>
       <c r="L273" t="n">
         <v>8.761999999999993</v>
@@ -14202,7 +14224,7 @@
         <v>7.71999999999999</v>
       </c>
       <c r="K274" t="n">
-        <v>7.692307692307552</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L274" t="n">
         <v>8.770999999999994</v>
@@ -14253,7 +14275,7 @@
         <v>7.749999999999989</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571404</v>
+        <v>42.85714285714177</v>
       </c>
       <c r="L275" t="n">
         <v>8.777999999999995</v>
@@ -14304,7 +14326,7 @@
         <v>7.759999999999991</v>
       </c>
       <c r="K276" t="n">
-        <v>16.27906976744194</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>8.784999999999993</v>
@@ -14355,7 +14377,7 @@
         <v>7.799999999999992</v>
       </c>
       <c r="K277" t="n">
-        <v>6.38297872340411</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>8.784999999999993</v>
@@ -14406,7 +14428,7 @@
         <v>7.799999999999992</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L278" t="n">
         <v>8.784999999999993</v>
@@ -14457,7 +14479,7 @@
         <v>7.799999999999992</v>
       </c>
       <c r="K279" t="n">
-        <v>18.91891891891894</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>8.782999999999994</v>
@@ -14508,7 +14530,7 @@
         <v>7.829999999999991</v>
       </c>
       <c r="K280" t="n">
-        <v>22.22222222222217</v>
+        <v>-46.6666666666662</v>
       </c>
       <c r="L280" t="n">
         <v>8.775999999999994</v>
@@ -14559,7 +14581,7 @@
         <v>7.949999999999992</v>
       </c>
       <c r="K281" t="n">
-        <v>-8.333333333333487</v>
+        <v>-70.37037037037003</v>
       </c>
       <c r="L281" t="n">
         <v>8.756999999999994</v>
@@ -14610,7 +14632,7 @@
         <v>7.969999999999992</v>
       </c>
       <c r="K282" t="n">
-        <v>-19.14893617021264</v>
+        <v>-72.4137931034479</v>
       </c>
       <c r="L282" t="n">
         <v>8.735999999999995</v>
@@ -14661,7 +14683,7 @@
         <v>8.009999999999991</v>
       </c>
       <c r="K283" t="n">
-        <v>-20.83333333333317</v>
+        <v>-72.41379310344773</v>
       </c>
       <c r="L283" t="n">
         <v>8.710999999999995</v>
@@ -14712,7 +14734,7 @@
         <v>8.03999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>-18.36734693877541</v>
+        <v>-72.41379310344773</v>
       </c>
       <c r="L284" t="n">
         <v>8.692999999999994</v>
@@ -14763,7 +14785,7 @@
         <v>8.05999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>-34.78260869565214</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L285" t="n">
         <v>8.669999999999996</v>
@@ -14814,7 +14836,7 @@
         <v>8.05999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>-37.77777777777767</v>
+        <v>-76.92307692307723</v>
       </c>
       <c r="L286" t="n">
         <v>8.645999999999997</v>
@@ -14865,7 +14887,7 @@
         <v>8.079999999999991</v>
       </c>
       <c r="K287" t="n">
-        <v>-49.9999999999998</v>
+        <v>-78.57142857142898</v>
       </c>
       <c r="L287" t="n">
         <v>8.623999999999997</v>
@@ -14916,7 +14938,7 @@
         <v>8.099999999999993</v>
       </c>
       <c r="K288" t="n">
-        <v>-43.47826086956464</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L288" t="n">
         <v>8.603999999999996</v>
@@ -14967,7 +14989,7 @@
         <v>8.129999999999992</v>
       </c>
       <c r="K289" t="n">
-        <v>-40.42553191489315</v>
+        <v>-46.66666666666674</v>
       </c>
       <c r="L289" t="n">
         <v>8.586999999999996</v>
@@ -15018,7 +15040,7 @@
         <v>8.179999999999993</v>
       </c>
       <c r="K290" t="n">
-        <v>-51.99999999999994</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L290" t="n">
         <v>8.567999999999996</v>
@@ -15069,7 +15091,7 @@
         <v>8.199999999999994</v>
       </c>
       <c r="K291" t="n">
-        <v>-46.15384615384576</v>
+        <v>-13.04347826086916</v>
       </c>
       <c r="L291" t="n">
         <v>8.562999999999997</v>
@@ -15120,7 +15142,7 @@
         <v>8.269999999999994</v>
       </c>
       <c r="K292" t="n">
-        <v>-52.54237288135556</v>
+        <v>-23.07692307692297</v>
       </c>
       <c r="L292" t="n">
         <v>8.552999999999995</v>
@@ -15171,7 +15193,7 @@
         <v>8.279999999999994</v>
       </c>
       <c r="K293" t="n">
-        <v>-53.33333333333294</v>
+        <v>-41.66666666666586</v>
       </c>
       <c r="L293" t="n">
         <v>8.545999999999996</v>
@@ -15222,7 +15244,7 @@
         <v>8.279999999999994</v>
       </c>
       <c r="K294" t="n">
-        <v>-49.99999999999952</v>
+        <v>-36.36363636363571</v>
       </c>
       <c r="L294" t="n">
         <v>8.535999999999998</v>
@@ -15273,7 +15295,7 @@
         <v>8.279999999999994</v>
       </c>
       <c r="K295" t="n">
-        <v>-58.49056603773509</v>
+        <v>-36.36363636363571</v>
       </c>
       <c r="L295" t="n">
         <v>8.527999999999997</v>
@@ -15324,7 +15346,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K296" t="n">
-        <v>-62.96296296296262</v>
+        <v>-36.36363636363519</v>
       </c>
       <c r="L296" t="n">
         <v>8.517999999999997</v>
@@ -15375,7 +15397,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K297" t="n">
-        <v>-59.99999999999957</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L297" t="n">
         <v>8.51</v>
@@ -15426,7 +15448,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K298" t="n">
-        <v>-59.99999999999957</v>
+        <v>-76.47058823529277</v>
       </c>
       <c r="L298" t="n">
         <v>8.5</v>
@@ -15477,7 +15499,7 @@
         <v>8.309999999999993</v>
       </c>
       <c r="K299" t="n">
-        <v>-56.86274509803887</v>
+        <v>-53.84615384615238</v>
       </c>
       <c r="L299" t="n">
         <v>8.488</v>
@@ -15528,7 +15550,7 @@
         <v>8.349999999999993</v>
       </c>
       <c r="K300" t="n">
-        <v>-42.30769230769232</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L300" t="n">
         <v>8.484999999999999</v>
@@ -15579,7 +15601,7 @@
         <v>8.379999999999992</v>
       </c>
       <c r="K301" t="n">
-        <v>-30.23255813953467</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L301" t="n">
         <v>8.477</v>
@@ -15630,7 +15652,7 @@
         <v>8.419999999999991</v>
       </c>
       <c r="K302" t="n">
-        <v>-15.55555555555564</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L302" t="n">
         <v>8.48</v>
@@ -15681,7 +15703,7 @@
         <v>8.429999999999991</v>
       </c>
       <c r="K303" t="n">
-        <v>-4.761904761905084</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>8.484999999999999</v>
@@ -15732,7 +15754,7 @@
         <v>8.439999999999991</v>
       </c>
       <c r="K304" t="n">
-        <v>-15.00000000000011</v>
+        <v>25</v>
       </c>
       <c r="L304" t="n">
         <v>8.488999999999999</v>
@@ -15783,7 +15805,7 @@
         <v>8.48999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-20.93023255813952</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L305" t="n">
         <v>8.487999999999998</v>
@@ -15834,7 +15856,7 @@
         <v>8.559999999999988</v>
       </c>
       <c r="K306" t="n">
-        <v>-4.000000000000284</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L306" t="n">
         <v>8.495999999999999</v>
@@ -15885,7 +15907,7 @@
         <v>8.609999999999989</v>
       </c>
       <c r="K307" t="n">
-        <v>9.43396226415112</v>
+        <v>41.93548387096808</v>
       </c>
       <c r="L307" t="n">
         <v>8.508999999999997</v>
@@ -15936,7 +15958,7 @@
         <v>8.629999999999988</v>
       </c>
       <c r="K308" t="n">
-        <v>1.886792452830163</v>
+        <v>31.25000000000038</v>
       </c>
       <c r="L308" t="n">
         <v>8.519999999999996</v>
@@ -15987,7 +16009,7 @@
         <v>8.639999999999988</v>
       </c>
       <c r="K309" t="n">
-        <v>-1.960784313725463</v>
+        <v>24.13793103448322</v>
       </c>
       <c r="L309" t="n">
         <v>8.530999999999995</v>
@@ -16038,7 +16060,7 @@
         <v>8.669999999999987</v>
       </c>
       <c r="K310" t="n">
-        <v>14.28571428571449</v>
+        <v>44.82758620689689</v>
       </c>
       <c r="L310" t="n">
         <v>8.540999999999995</v>
@@ -16089,7 +16111,7 @@
         <v>8.799999999999986</v>
       </c>
       <c r="K311" t="n">
-        <v>-13.33333333333351</v>
+        <v>-10.52631578947359</v>
       </c>
       <c r="L311" t="n">
         <v>8.540999999999995</v>
@@ -16140,7 +16162,7 @@
         <v>8.849999999999985</v>
       </c>
       <c r="K312" t="n">
-        <v>6.89655172413789</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>8.541999999999996</v>
@@ -16191,7 +16213,7 @@
         <v>8.869999999999987</v>
       </c>
       <c r="K313" t="n">
-        <v>11.86440677966121</v>
+        <v>6.976744186046838</v>
       </c>
       <c r="L313" t="n">
         <v>8.543999999999995</v>
@@ -16242,7 +16264,7 @@
         <v>8.869999999999987</v>
       </c>
       <c r="K314" t="n">
-        <v>11.86440677966121</v>
+        <v>21.05263157894754</v>
       </c>
       <c r="L314" t="n">
         <v>8.546999999999995</v>
@@ -16293,7 +16315,7 @@
         <v>8.889999999999988</v>
       </c>
       <c r="K315" t="n">
-        <v>8.196721311475315</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L315" t="n">
         <v>8.552999999999995</v>
@@ -16344,7 +16366,7 @@
         <v>8.889999999999988</v>
       </c>
       <c r="K316" t="n">
-        <v>11.86440677966088</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L316" t="n">
         <v>8.551999999999996</v>
@@ -16395,7 +16417,7 @@
         <v>8.909999999999989</v>
       </c>
       <c r="K317" t="n">
-        <v>14.75409836065582</v>
+        <v>-7.142857142856962</v>
       </c>
       <c r="L317" t="n">
         <v>8.547999999999995</v>
@@ -16446,7 +16468,7 @@
         <v>8.929999999999991</v>
       </c>
       <c r="K318" t="n">
-        <v>11.11111111111092</v>
+        <v>-17.24137931034491</v>
       </c>
       <c r="L318" t="n">
         <v>8.543999999999993</v>
@@ -16497,7 +16519,7 @@
         <v>8.959999999999992</v>
       </c>
       <c r="K319" t="n">
-        <v>13.84615384615386</v>
+        <v>-17.24137931034419</v>
       </c>
       <c r="L319" t="n">
         <v>8.541999999999994</v>
@@ -16548,7 +16570,7 @@
         <v>8.989999999999993</v>
       </c>
       <c r="K320" t="n">
-        <v>3.124999999999931</v>
+        <v>26.31578947368273</v>
       </c>
       <c r="L320" t="n">
         <v>8.533999999999995</v>
@@ -16599,7 +16621,7 @@
         <v>9.009999999999994</v>
       </c>
       <c r="K321" t="n">
-        <v>11.11111111111111</v>
+        <v>12.50000000000014</v>
       </c>
       <c r="L321" t="n">
         <v>8.540999999999993</v>
@@ -16650,7 +16672,7 @@
         <v>9.019999999999996</v>
       </c>
       <c r="K322" t="n">
-        <v>3.333333333333235</v>
+        <v>-6.666666666667298</v>
       </c>
       <c r="L322" t="n">
         <v>8.541999999999993</v>
@@ -16701,7 +16723,7 @@
         <v>9.019999999999996</v>
       </c>
       <c r="K323" t="n">
-        <v>1.694915254237237</v>
+        <v>-6.666666666667298</v>
       </c>
       <c r="L323" t="n">
         <v>8.540999999999993</v>
@@ -16752,7 +16774,7 @@
         <v>9.019999999999996</v>
       </c>
       <c r="K324" t="n">
-        <v>3.44827586206886</v>
+        <v>7.692307692307061</v>
       </c>
       <c r="L324" t="n">
         <v>8.539999999999994</v>
@@ -16803,7 +16825,7 @@
         <v>9.019999999999996</v>
       </c>
       <c r="K325" t="n">
-        <v>13.20754716981088</v>
+        <v>7.692307692307061</v>
       </c>
       <c r="L325" t="n">
         <v>8.540999999999993</v>
@@ -16854,7 +16876,7 @@
         <v>9.049999999999997</v>
       </c>
       <c r="K326" t="n">
-        <v>6.122448979591955</v>
+        <v>14.2857142857132</v>
       </c>
       <c r="L326" t="n">
         <v>8.544999999999993</v>
@@ -16905,7 +16927,7 @@
         <v>9.059999999999997</v>
       </c>
       <c r="K327" t="n">
-        <v>-2.222222222222134</v>
+        <v>38.4615384615372</v>
       </c>
       <c r="L327" t="n">
         <v>8.547999999999993</v>
@@ -16956,7 +16978,7 @@
         <v>9.069999999999997</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>9.090909090908504</v>
       </c>
       <c r="L328" t="n">
         <v>8.551999999999992</v>
@@ -17007,7 +17029,7 @@
         <v>9.069999999999997</v>
       </c>
       <c r="K329" t="n">
-        <v>-2.325581395348741</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L329" t="n">
         <v>8.552999999999992</v>
@@ -17058,7 +17080,7 @@
         <v>9.069999999999997</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.999999999999556</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L330" t="n">
         <v>8.556999999999992</v>
@@ -17109,7 +17131,7 @@
         <v>9.069999999999997</v>
       </c>
       <c r="K331" t="n">
-        <v>33.33333333333201</v>
+        <v>60.00000000000142</v>
       </c>
       <c r="L331" t="n">
         <v>8.55899999999999</v>
@@ -17160,7 +17182,7 @@
         <v>9.099999999999996</v>
       </c>
       <c r="K332" t="n">
-        <v>27.99999999999892</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L332" t="n">
         <v>8.564999999999989</v>
@@ -17211,7 +17233,7 @@
         <v>9.099999999999996</v>
       </c>
       <c r="K333" t="n">
-        <v>21.73913043478127</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L333" t="n">
         <v>8.570999999999989</v>
@@ -17262,7 +17284,7 @@
         <v>9.159999999999997</v>
       </c>
       <c r="K334" t="n">
-        <v>-3.448275862069388</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>8.570999999999989</v>
@@ -17313,7 +17335,7 @@
         <v>9.189999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>13.33333333333321</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>8.573999999999989</v>
@@ -17364,7 +17386,7 @@
         <v>9.229999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>-29.41176470588248</v>
       </c>
       <c r="L336" t="n">
         <v>8.56999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>9.27</v>
       </c>
       <c r="K337" t="n">
-        <v>5.555555555555281</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>8.56899999999999</v>
@@ -17466,7 +17488,7 @@
         <v>9.27</v>
       </c>
       <c r="K338" t="n">
-        <v>11.76470588235291</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>8.568999999999992</v>
@@ -17517,7 +17539,7 @@
         <v>9.27</v>
       </c>
       <c r="K339" t="n">
-        <v>3.225806451612755</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>8.568999999999992</v>
@@ -17568,7 +17590,7 @@
         <v>9.27</v>
       </c>
       <c r="K340" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>8.568999999999992</v>
@@ -17619,7 +17641,7 @@
         <v>9.27</v>
       </c>
       <c r="K341" t="n">
-        <v>7.692307692307376</v>
+        <v>-17.64705882352867</v>
       </c>
       <c r="L341" t="n">
         <v>8.568999999999992</v>
@@ -17670,7 +17692,7 @@
         <v>9.34</v>
       </c>
       <c r="K342" t="n">
-        <v>-12.49999999999958</v>
+        <v>-41.66666666666586</v>
       </c>
       <c r="L342" t="n">
         <v>8.558999999999992</v>
@@ -17721,7 +17743,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>-5.882352941176286</v>
+        <v>-9.999999999999645</v>
       </c>
       <c r="L343" t="n">
         <v>8.550999999999991</v>
@@ -17772,7 +17794,7 @@
         <v>9.379999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>-11.11111111111078</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L344" t="n">
         <v>8.546999999999992</v>
@@ -17823,7 +17845,7 @@
         <v>9.389999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>-8.108108108107874</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L345" t="n">
         <v>8.540999999999991</v>
@@ -17874,7 +17896,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>-20</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L346" t="n">
         <v>8.537999999999991</v>
@@ -17925,7 +17947,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>-23.52941176470579</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L347" t="n">
         <v>8.530999999999992</v>
@@ -17976,7 +17998,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>-21.21212121212118</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L348" t="n">
         <v>8.523999999999992</v>
@@ -18027,7 +18049,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>-21.21212121212118</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L349" t="n">
         <v>8.516999999999992</v>
@@ -18078,7 +18100,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>-21.21212121212118</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L350" t="n">
         <v>8.509999999999994</v>
@@ -18129,7 +18151,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>-21.21212121212118</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>8.502999999999995</v>
@@ -18180,7 +18202,7 @@
         <v>9.419999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>-24.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>8.504999999999994</v>
@@ -18231,7 +18253,7 @@
         <v>9.419999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-24.99999999999986</v>
+        <v>50</v>
       </c>
       <c r="L353" t="n">
         <v>8.504999999999994</v>
@@ -18282,7 +18304,7 @@
         <v>9.469999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>9.677419354839005</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L354" t="n">
         <v>8.511999999999995</v>
@@ -18333,7 +18355,7 @@
         <v>9.479999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>3.448275862068881</v>
+        <v>100</v>
       </c>
       <c r="L355" t="n">
         <v>8.518999999999995</v>
@@ -18384,7 +18406,7 @@
         <v>9.489999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>15.38461538461575</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L356" t="n">
         <v>8.525999999999993</v>
@@ -18435,7 +18457,7 @@
         <v>9.499999999999998</v>
       </c>
       <c r="K357" t="n">
-        <v>-4.347826086956454</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L357" t="n">
         <v>8.531999999999993</v>
@@ -18486,7 +18508,7 @@
         <v>9.52</v>
       </c>
       <c r="K358" t="n">
-        <v>-12.00000000000045</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L358" t="n">
         <v>8.535999999999992</v>
@@ -18537,7 +18559,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>-18.51851851851881</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L359" t="n">
         <v>8.537999999999993</v>
@@ -18588,7 +18610,7 @@
         <v>9.549999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>-21.42857142857165</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L360" t="n">
         <v>8.538999999999993</v>
@@ -18639,7 +18661,7 @@
         <v>9.559999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>-17.24137931034512</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>8.540999999999993</v>
@@ -18690,7 +18712,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>28.57142857142867</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L362" t="n">
         <v>8.546999999999993</v>
@@ -18741,7 +18763,7 @@
         <v>9.629999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>18.51851851851881</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>8.551999999999994</v>
@@ -18792,7 +18814,7 @@
         <v>9.639999999999999</v>
       </c>
       <c r="K364" t="n">
-        <v>30.76923076923082</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>8.552999999999994</v>
@@ -18843,7 +18865,7 @@
         <v>9.68</v>
       </c>
       <c r="K365" t="n">
-        <v>10.34482758620664</v>
+        <v>-15.78947368421102</v>
       </c>
       <c r="L365" t="n">
         <v>8.548999999999994</v>
@@ -18894,7 +18916,7 @@
         <v>9.68</v>
       </c>
       <c r="K366" t="n">
-        <v>14.28571428571392</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L366" t="n">
         <v>8.545999999999996</v>
@@ -18945,7 +18967,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>24.99999999999986</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L367" t="n">
         <v>8.547999999999995</v>
@@ -18996,7 +19018,7 @@
         <v>9.75</v>
       </c>
       <c r="K368" t="n">
-        <v>14.28571428571443</v>
+        <v>14.28571428571477</v>
       </c>
       <c r="L368" t="n">
         <v>8.548999999999996</v>
@@ -19047,7 +19069,7 @@
         <v>9.780000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>5.263157894736695</v>
+        <v>4.347826086956387</v>
       </c>
       <c r="L369" t="n">
         <v>8.548999999999996</v>
@@ -19098,7 +19120,7 @@
         <v>9.790000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>2.564102564102494</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L370" t="n">
         <v>8.548999999999996</v>
@@ -19149,7 +19171,7 @@
         <v>9.83</v>
       </c>
       <c r="K371" t="n">
-        <v>-6.976744186046338</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L371" t="n">
         <v>8.543999999999995</v>
@@ -19200,7 +19222,7 @@
         <v>9.84</v>
       </c>
       <c r="K372" t="n">
-        <v>-9.523809523809282</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L372" t="n">
         <v>8.533999999999995</v>
@@ -19251,7 +19273,7 @@
         <v>9.91</v>
       </c>
       <c r="K373" t="n">
-        <v>-22.44897959183653</v>
+        <v>-62.96296296296262</v>
       </c>
       <c r="L373" t="n">
         <v>8.517999999999995</v>
@@ -19302,7 +19324,7 @@
         <v>9.92</v>
       </c>
       <c r="K374" t="n">
-        <v>-33.33333333333333</v>
+        <v>-49.99999999999963</v>
       </c>
       <c r="L374" t="n">
         <v>8.501999999999995</v>
@@ -19353,7 +19375,7 @@
         <v>9.98</v>
       </c>
       <c r="K375" t="n">
-        <v>-43.99999999999997</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L375" t="n">
         <v>8.483999999999995</v>
@@ -19404,7 +19426,7 @@
         <v>10.04</v>
       </c>
       <c r="K376" t="n">
-        <v>-27.27272727272722</v>
+        <v>-50</v>
       </c>
       <c r="L376" t="n">
         <v>8.471999999999994</v>
@@ -19455,7 +19477,7 @@
         <v>10.06</v>
       </c>
       <c r="K377" t="n">
-        <v>-21.42857142857152</v>
+        <v>-35.48387096774227</v>
       </c>
       <c r="L377" t="n">
         <v>8.457999999999995</v>
@@ -19506,7 +19528,7 @@
         <v>10.13</v>
       </c>
       <c r="K378" t="n">
-        <v>-27.86885245901632</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L378" t="n">
         <v>8.439999999999994</v>
@@ -19557,7 +19579,7 @@
         <v>10.15</v>
       </c>
       <c r="K379" t="n">
-        <v>-21.3114754098358</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>8.426999999999996</v>
@@ -19608,7 +19630,7 @@
         <v>10.16</v>
       </c>
       <c r="K380" t="n">
-        <v>-18.03278688524572</v>
+        <v>-21.21212121212118</v>
       </c>
       <c r="L380" t="n">
         <v>8.415999999999995</v>
@@ -19659,7 +19681,7 @@
         <v>10.16</v>
       </c>
       <c r="K381" t="n">
-        <v>-19.99999999999976</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L381" t="n">
         <v>8.408999999999995</v>
@@ -19710,7 +19732,7 @@
         <v>10.19</v>
       </c>
       <c r="K382" t="n">
-        <v>-36.8421052631578</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L382" t="n">
         <v>8.397999999999996</v>
@@ -19761,7 +19783,7 @@
         <v>10.19</v>
       </c>
       <c r="K383" t="n">
-        <v>-35.71428571428565</v>
+        <v>-18.51851851851857</v>
       </c>
       <c r="L383" t="n">
         <v>8.393999999999997</v>
@@ -19812,7 +19834,7 @@
         <v>10.19</v>
       </c>
       <c r="K384" t="n">
-        <v>-38.18181818181804</v>
+        <v>4.761904761904601</v>
       </c>
       <c r="L384" t="n">
         <v>8.388999999999998</v>
@@ -19863,7 +19885,7 @@
         <v>10.19</v>
       </c>
       <c r="K385" t="n">
-        <v>-33.3333333333331</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>8.389999999999997</v>
@@ -19914,7 +19936,7 @@
         <v>10.19</v>
       </c>
       <c r="K386" t="n">
-        <v>-33.3333333333331</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L386" t="n">
         <v>8.384999999999998</v>
@@ -19965,7 +19987,7 @@
         <v>10.24</v>
       </c>
       <c r="K387" t="n">
-        <v>-30.76923076923061</v>
+        <v>45.45454545454486</v>
       </c>
       <c r="L387" t="n">
         <v>8.382999999999999</v>
@@ -20016,7 +20038,7 @@
         <v>10.24</v>
       </c>
       <c r="K388" t="n">
-        <v>-26.53061224489792</v>
+        <v>33.33333333333201</v>
       </c>
       <c r="L388" t="n">
         <v>8.387999999999998</v>
@@ -20067,7 +20089,7 @@
         <v>10.24</v>
       </c>
       <c r="K389" t="n">
-        <v>-21.73913043478241</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L389" t="n">
         <v>8.390999999999998</v>
@@ -20118,7 +20140,7 @@
         <v>10.27</v>
       </c>
       <c r="K390" t="n">
-        <v>-24.99999999999972</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L390" t="n">
         <v>8.389999999999997</v>
@@ -20169,7 +20191,7 @@
         <v>10.27</v>
       </c>
       <c r="K391" t="n">
-        <v>-18.18181818181807</v>
+        <v>25.00000000000167</v>
       </c>
       <c r="L391" t="n">
         <v>8.388999999999998</v>
@@ -20220,7 +20242,7 @@
         <v>10.29</v>
       </c>
       <c r="K392" t="n">
-        <v>-24.44444444444446</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>8.388999999999998</v>
@@ -20271,7 +20293,7 @@
         <v>10.31000000000001</v>
       </c>
       <c r="K393" t="n">
-        <v>-4.999999999999822</v>
+        <v>16.66666666666741</v>
       </c>
       <c r="L393" t="n">
         <v>8.390999999999996</v>
@@ -20322,7 +20344,7 @@
         <v>10.31000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-7.692307692307413</v>
+        <v>16.66666666666741</v>
       </c>
       <c r="L394" t="n">
         <v>8.392999999999997</v>
@@ -20373,7 +20395,7 @@
         <v>10.33000000000001</v>
       </c>
       <c r="K395" t="n">
-        <v>2.857142857142741</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>8.392999999999997</v>
@@ -20424,7 +20446,7 @@
         <v>10.33000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>-17.2413793103447</v>
+        <v>-55.55555555555424</v>
       </c>
       <c r="L396" t="n">
         <v>8.392999999999997</v>
@@ -20475,7 +20497,7 @@
         <v>10.35000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>-31.03448275861997</v>
+        <v>-63.63636363636217</v>
       </c>
       <c r="L397" t="n">
         <v>8.385999999999996</v>
@@ -20526,7 +20548,7 @@
         <v>10.37000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>-38.46153846153825</v>
       </c>
       <c r="L398" t="n">
         <v>8.380999999999997</v>
@@ -20577,7 +20599,7 @@
         <v>10.37000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-9.09090909090953</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L399" t="n">
         <v>8.375999999999996</v>
@@ -20628,7 +20650,7 @@
         <v>10.41000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>3.999999999999829</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L400" t="n">
         <v>8.377999999999997</v>
@@ -20679,7 +20701,7 @@
         <v>10.44000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>-7.142857142856871</v>
+        <v>6.666666666667615</v>
       </c>
       <c r="L401" t="n">
         <v>8.376999999999995</v>
@@ -20730,7 +20752,7 @@
         <v>10.45000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L402" t="n">
         <v>8.376999999999995</v>
@@ -20781,7 +20803,7 @@
         <v>10.47000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>7.14285714285746</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>8.376999999999995</v>
@@ -20934,7 +20956,7 @@
         <v>10.49000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L406" t="n">
         <v>8.374999999999996</v>
@@ -20985,7 +21007,7 @@
         <v>10.52000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-28.57142857142794</v>
+        <v>-19.99999999999905</v>
       </c>
       <c r="L407" t="n">
         <v>8.373999999999997</v>
@@ -21036,7 +21058,7 @@
         <v>10.53000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>-31.03448275861997</v>
+        <v>-24.99999999999889</v>
       </c>
       <c r="L408" t="n">
         <v>8.369999999999996</v>
@@ -21087,7 +21109,7 @@
         <v>10.54000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>-33.33333333333254</v>
+        <v>-69.23076923076776</v>
       </c>
       <c r="L409" t="n">
         <v>8.364999999999995</v>
@@ -21138,7 +21160,7 @@
         <v>10.54000000000001</v>
       </c>
       <c r="K410" t="n">
-        <v>-25.92592592592539</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L410" t="n">
         <v>8.355999999999995</v>
@@ -21189,7 +21211,7 @@
         <v>10.55000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>-28.57142857142794</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L411" t="n">
         <v>8.348999999999995</v>
@@ -21240,7 +21262,7 @@
         <v>10.55000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>-23.07692307692213</v>
+        <v>-100</v>
       </c>
       <c r="L412" t="n">
         <v>8.342999999999995</v>
@@ -21291,7 +21313,7 @@
         <v>10.57000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>-38.46153846153825</v>
+        <v>-100</v>
       </c>
       <c r="L413" t="n">
         <v>8.332999999999995</v>
@@ -21342,7 +21364,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>-44.82758620689613</v>
+        <v>-100</v>
       </c>
       <c r="L414" t="n">
         <v>8.321999999999994</v>
@@ -21393,7 +21415,7 @@
         <v>10.65000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>-18.74999999999937</v>
+        <v>-37.49999999999917</v>
       </c>
       <c r="L415" t="n">
         <v>8.315999999999994</v>
@@ -21444,7 +21466,7 @@
         <v>10.65000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>-18.74999999999937</v>
+        <v>-23.07692307692244</v>
       </c>
       <c r="L416" t="n">
         <v>8.309999999999993</v>
@@ -21495,7 +21517,7 @@
         <v>10.67000000000001</v>
       </c>
       <c r="K417" t="n">
-        <v>-18.74999999999983</v>
+        <v>-28.57142857142875</v>
       </c>
       <c r="L417" t="n">
         <v>8.304999999999993</v>
@@ -21546,7 +21568,7 @@
         <v>10.69000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>-18.74999999999917</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L418" t="n">
         <v>8.302999999999994</v>
@@ -21597,7 +21619,7 @@
         <v>10.71000000000002</v>
       </c>
       <c r="K419" t="n">
-        <v>-23.5294117647053</v>
+        <v>-17.64705882352953</v>
       </c>
       <c r="L419" t="n">
         <v>8.299999999999994</v>
@@ -21648,7 +21670,7 @@
         <v>10.73000000000002</v>
       </c>
       <c r="K420" t="n">
-        <v>-31.24999999999899</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>8.298999999999996</v>
@@ -21699,7 +21721,7 @@
         <v>10.73000000000002</v>
       </c>
       <c r="K421" t="n">
-        <v>-24.13793103448204</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>8.298999999999996</v>
@@ -21750,7 +21772,7 @@
         <v>10.77000000000002</v>
       </c>
       <c r="K422" t="n">
-        <v>-6.249999999999723</v>
+        <v>29.99999999999956</v>
       </c>
       <c r="L422" t="n">
         <v>8.302999999999994</v>
@@ -21801,7 +21823,7 @@
         <v>10.81000000000002</v>
       </c>
       <c r="K423" t="n">
-        <v>0</v>
+        <v>61.90476190476046</v>
       </c>
       <c r="L423" t="n">
         <v>8.312999999999994</v>
@@ -21852,7 +21874,7 @@
         <v>10.82000000000002</v>
       </c>
       <c r="K424" t="n">
-        <v>9.090909090909287</v>
+        <v>52.94117647058651</v>
       </c>
       <c r="L424" t="n">
         <v>8.326999999999995</v>
@@ -21903,7 +21925,7 @@
         <v>10.83000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>5.882352941176778</v>
+        <v>44.44444444444323</v>
       </c>
       <c r="L425" t="n">
         <v>8.334999999999994</v>
@@ -21954,7 +21976,7 @@
         <v>10.87000000000002</v>
       </c>
       <c r="K426" t="n">
-        <v>15.78947368421048</v>
+        <v>69.99999999999929</v>
       </c>
       <c r="L426" t="n">
         <v>8.346999999999994</v>
@@ -22005,7 +22027,7 @@
         <v>10.87000000000002</v>
       </c>
       <c r="K427" t="n">
-        <v>25.71428571428531</v>
+        <v>66.66666666666568</v>
       </c>
       <c r="L427" t="n">
         <v>8.360999999999995</v>
@@ -22056,7 +22078,7 @@
         <v>10.89000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>22.22222222222195</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L428" t="n">
         <v>8.370999999999995</v>
@@ -22107,7 +22129,7 @@
         <v>10.93000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>33.33333333333272</v>
+        <v>70.00000000000026</v>
       </c>
       <c r="L429" t="n">
         <v>8.386999999999995</v>
@@ -22158,7 +22180,7 @@
         <v>10.97000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>39.53488372092976</v>
+        <v>75.00000000000037</v>
       </c>
       <c r="L430" t="n">
         <v>8.404999999999994</v>
@@ -22209,7 +22231,7 @@
         <v>11.01000000000002</v>
       </c>
       <c r="K431" t="n">
-        <v>30.43478260869498</v>
+        <v>41.66666666666648</v>
       </c>
       <c r="L431" t="n">
         <v>8.418999999999993</v>
@@ -22260,7 +22282,7 @@
         <v>11.03000000000002</v>
       </c>
       <c r="K432" t="n">
-        <v>33.33333333333284</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L432" t="n">
         <v>8.430999999999994</v>
@@ -22311,7 +22333,7 @@
         <v>11.05000000000002</v>
       </c>
       <c r="K433" t="n">
-        <v>33.33333333333284</v>
+        <v>21.73913043478194</v>
       </c>
       <c r="L433" t="n">
         <v>8.436999999999994</v>
@@ -22362,7 +22384,7 @@
         <v>11.09000000000002</v>
       </c>
       <c r="K434" t="n">
-        <v>46.93877551020329</v>
+        <v>38.46153846153783</v>
       </c>
       <c r="L434" t="n">
         <v>8.445999999999994</v>
@@ -22413,7 +22435,7 @@
         <v>11.12000000000002</v>
       </c>
       <c r="K435" t="n">
-        <v>44.68085106382885</v>
+        <v>35.99999999999943</v>
       </c>
       <c r="L435" t="n">
         <v>8.458999999999993</v>
@@ -22464,7 +22486,7 @@
         <v>11.13000000000002</v>
       </c>
       <c r="K436" t="n">
-        <v>45.83333333333238</v>
+        <v>38.46153846153783</v>
       </c>
       <c r="L436" t="n">
         <v>8.468999999999994</v>
@@ -22515,7 +22537,7 @@
         <v>11.14000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>53.19148936170145</v>
+        <v>51.99999999999886</v>
       </c>
       <c r="L437" t="n">
         <v>8.479999999999993</v>
@@ -22566,7 +22588,7 @@
         <v>11.14000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>51.11111111111028</v>
+        <v>42.85714285714189</v>
       </c>
       <c r="L438" t="n">
         <v>8.492999999999991</v>
@@ -22617,7 +22639,7 @@
         <v>11.21000000000002</v>
       </c>
       <c r="K439" t="n">
-        <v>36.00000000000017</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L439" t="n">
         <v>8.494999999999992</v>
@@ -22668,7 +22690,7 @@
         <v>11.22000000000002</v>
       </c>
       <c r="K440" t="n">
-        <v>30.61224489795925</v>
+        <v>4.761904761905487</v>
       </c>
       <c r="L440" t="n">
         <v>8.491999999999992</v>
@@ -22719,7 +22741,7 @@
         <v>11.24000000000002</v>
       </c>
       <c r="K441" t="n">
-        <v>33.33333333333333</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L441" t="n">
         <v>8.494999999999992</v>
@@ -22770,7 +22792,7 @@
         <v>11.29000000000002</v>
       </c>
       <c r="K442" t="n">
-        <v>34.61538461538458</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L442" t="n">
         <v>8.500999999999992</v>
@@ -22821,7 +22843,7 @@
         <v>11.34000000000001</v>
       </c>
       <c r="K443" t="n">
-        <v>16.98113207547175</v>
+        <v>-4</v>
       </c>
       <c r="L443" t="n">
         <v>8.503999999999992</v>
@@ -22872,7 +22894,7 @@
         <v>11.37000000000002</v>
       </c>
       <c r="K444" t="n">
-        <v>9.090909090908914</v>
+        <v>-28.00000000000051</v>
       </c>
       <c r="L444" t="n">
         <v>8.499999999999993</v>
@@ -22923,7 +22945,7 @@
         <v>11.42000000000001</v>
       </c>
       <c r="K445" t="n">
-        <v>1.694915254237258</v>
+        <v>-44.82758620689689</v>
       </c>
       <c r="L445" t="n">
         <v>8.487999999999994</v>
@@ -22974,7 +22996,7 @@
         <v>11.44000000000001</v>
       </c>
       <c r="K446" t="n">
-        <v>-8.771929824561239</v>
+        <v>-53.33333333333361</v>
       </c>
       <c r="L446" t="n">
         <v>8.472999999999994</v>
@@ -23025,7 +23047,7 @@
         <v>11.45000000000002</v>
       </c>
       <c r="K447" t="n">
-        <v>-10.34482758620698</v>
+        <v>-54.83870967741987</v>
       </c>
       <c r="L447" t="n">
         <v>8.455999999999994</v>
@@ -23076,7 +23098,7 @@
         <v>11.46000000000002</v>
       </c>
       <c r="K448" t="n">
-        <v>-5.263157894736711</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L448" t="n">
         <v>8.439999999999994</v>
@@ -23127,7 +23149,7 @@
         <v>11.46000000000002</v>
       </c>
       <c r="K449" t="n">
-        <v>-13.20754716981097</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L449" t="n">
         <v>8.430999999999994</v>
@@ -23178,7 +23200,7 @@
         <v>11.47000000000002</v>
       </c>
       <c r="K450" t="n">
-        <v>-24.00000000000003</v>
+        <v>-47.82608695652181</v>
       </c>
       <c r="L450" t="n">
         <v>8.421999999999993</v>
@@ -23229,7 +23251,7 @@
         <v>11.49000000000002</v>
       </c>
       <c r="K451" t="n">
-        <v>-12.49999999999963</v>
+        <v>-69.99999999999777</v>
       </c>
       <c r="L451" t="n">
         <v>8.412999999999993</v>
@@ -23280,7 +23302,7 @@
         <v>11.49000000000002</v>
       </c>
       <c r="K452" t="n">
-        <v>-17.391304347826</v>
+        <v>-59.99999999999763</v>
       </c>
       <c r="L452" t="n">
         <v>8.398999999999994</v>
@@ -23331,7 +23353,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K453" t="n">
-        <v>-11.11111111111085</v>
+        <v>-38.46153846153636</v>
       </c>
       <c r="L453" t="n">
         <v>8.390999999999995</v>
@@ -23382,7 +23404,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K454" t="n">
-        <v>-21.95121951219508</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>8.385999999999994</v>
@@ -23433,7 +23455,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K455" t="n">
-        <v>-31.57894736842078</v>
+        <v>33.33333333332939</v>
       </c>
       <c r="L455" t="n">
         <v>8.385999999999994</v>
@@ -23484,7 +23506,7 @@
         <v>11.51000000000002</v>
       </c>
       <c r="K456" t="n">
-        <v>-31.57894736842078</v>
+        <v>66.66666666666372</v>
       </c>
       <c r="L456" t="n">
         <v>8.388999999999994</v>
@@ -23535,7 +23557,7 @@
         <v>11.51000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>-35.13513513513477</v>
+        <v>59.99999999999574</v>
       </c>
       <c r="L457" t="n">
         <v>8.392999999999994</v>
@@ -23586,7 +23608,7 @@
         <v>11.54000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>-24.99999999999989</v>
+        <v>74.99999999999667</v>
       </c>
       <c r="L458" t="n">
         <v>8.398999999999994</v>
@@ -23637,7 +23659,7 @@
         <v>11.55000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>-5.88235294117684</v>
+        <v>100</v>
       </c>
       <c r="L459" t="n">
         <v>8.405999999999995</v>
@@ -23688,7 +23710,7 @@
         <v>11.55000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>-3.030303030303487</v>
+        <v>100</v>
       </c>
       <c r="L460" t="n">
         <v>8.413999999999994</v>
@@ -23739,7 +23761,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>5.555555555555391</v>
+        <v>100</v>
       </c>
       <c r="L461" t="n">
         <v>8.424999999999994</v>
@@ -23790,7 +23812,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>-9.677419354838376</v>
+        <v>100</v>
       </c>
       <c r="L462" t="n">
         <v>8.435999999999995</v>
@@ -23841,7 +23863,7 @@
         <v>11.61000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>11.11111111111067</v>
+        <v>100</v>
       </c>
       <c r="L463" t="n">
         <v>8.446999999999994</v>
@@ -23892,7 +23914,7 @@
         <v>11.64000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>33.3333333333329</v>
+        <v>100</v>
       </c>
       <c r="L464" t="n">
         <v>8.460999999999993</v>
@@ -23943,7 +23965,7 @@
         <v>11.68000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>69.23076923076776</v>
+        <v>100</v>
       </c>
       <c r="L465" t="n">
         <v>8.478999999999992</v>
@@ -23994,7 +24016,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>84.61538461538251</v>
+        <v>100</v>
       </c>
       <c r="L466" t="n">
         <v>8.497999999999992</v>
@@ -24045,7 +24067,7 @@
         <v>11.72000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>77.77777777777719</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L467" t="n">
         <v>8.514999999999992</v>
@@ -24096,7 +24118,7 @@
         <v>11.73000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>70.37037037036984</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L468" t="n">
         <v>8.527999999999992</v>
@@ -24147,7 +24169,7 @@
         <v>11.76000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>73.33333333333279</v>
+        <v>71.42857142857191</v>
       </c>
       <c r="L469" t="n">
         <v>8.54299999999999</v>
@@ -24198,7 +24220,7 @@
         <v>11.78000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>80.6451612903229</v>
+        <v>66.666666666667</v>
       </c>
       <c r="L470" t="n">
         <v>8.559999999999992</v>
@@ -24249,7 +24271,7 @@
         <v>11.78000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>79.31034482758646</v>
+        <v>66.666666666667</v>
       </c>
       <c r="L471" t="n">
         <v>8.571999999999992</v>
@@ -24300,7 +24322,7 @@
         <v>11.94000000000002</v>
       </c>
       <c r="K472" t="n">
-        <v>86.66666666666688</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L472" t="n">
         <v>8.599999999999991</v>
@@ -24351,7 +24373,7 @@
         <v>11.97000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>74.46808510638337</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L473" t="n">
         <v>8.623999999999992</v>
@@ -24402,7 +24424,7 @@
         <v>12.04000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>51.85185185185198</v>
+        <v>27.77777777777786</v>
       </c>
       <c r="L474" t="n">
         <v>8.637999999999991</v>
@@ -24453,7 +24475,7 @@
         <v>12.06000000000002</v>
       </c>
       <c r="K475" t="n">
-        <v>46.42857142857164</v>
+        <v>16.66666666666691</v>
       </c>
       <c r="L475" t="n">
         <v>8.64599999999999</v>
@@ -24504,7 +24526,7 @@
         <v>12.08000000000002</v>
       </c>
       <c r="K476" t="n">
-        <v>40.35087719298276</v>
+        <v>16.66666666666691</v>
       </c>
       <c r="L476" t="n">
         <v>8.649999999999991</v>
@@ -24555,7 +24577,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>42.37288135593247</v>
+        <v>24.32432432432445</v>
       </c>
       <c r="L477" t="n">
         <v>8.657999999999991</v>
@@ -24606,7 +24628,7 @@
         <v>12.18000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>46.87500000000033</v>
+        <v>33.33333333333361</v>
       </c>
       <c r="L478" t="n">
         <v>8.674999999999992</v>
@@ -24657,7 +24679,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>41.53846153846195</v>
+        <v>23.80952380952425</v>
       </c>
       <c r="L479" t="n">
         <v>8.686999999999992</v>
@@ -24708,7 +24730,7 @@
         <v>12.26000000000001</v>
       </c>
       <c r="K480" t="n">
-        <v>46.47887323943692</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L480" t="n">
         <v>8.702999999999992</v>
@@ -24759,7 +24781,7 @@
         <v>12.28000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>44.11764705882388</v>
+        <v>5.882352941176901</v>
       </c>
       <c r="L481" t="n">
         <v>8.720999999999991</v>
@@ -24810,7 +24832,7 @@
         <v>12.28000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>44.11764705882388</v>
+        <v>16.12903225806481</v>
       </c>
       <c r="L482" t="n">
         <v>8.72299999999999</v>
@@ -24861,7 +24883,7 @@
         <v>12.29000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>41.17647058823533</v>
+        <v>43.99999999999977</v>
       </c>
       <c r="L483" t="n">
         <v>8.72699999999999</v>
@@ -24912,7 +24934,7 @@
         <v>12.29000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>38.46153846153855</v>
+        <v>56.52173913043425</v>
       </c>
       <c r="L484" t="n">
         <v>8.737999999999989</v>
@@ -24963,7 +24985,7 @@
         <v>12.29000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>34.42622950819671</v>
+        <v>71.42857142857046</v>
       </c>
       <c r="L485" t="n">
         <v>8.750999999999987</v>
@@ -25014,7 +25036,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>33.33333333333353</v>
+        <v>69.99999999999929</v>
       </c>
       <c r="L486" t="n">
         <v>8.766999999999987</v>
@@ -25065,7 +25087,7 @@
         <v>12.32000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>40.00000000000006</v>
+        <v>57.14285714285624</v>
       </c>
       <c r="L487" t="n">
         <v>8.782999999999987</v>
@@ -25116,7 +25138,7 @@
         <v>12.34000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>44.26229508196718</v>
+        <v>85.71428571428372</v>
       </c>
       <c r="L488" t="n">
         <v>8.792999999999989</v>
@@ -25167,7 +25189,7 @@
         <v>12.34000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>41.37931034482762</v>
+        <v>74.99999999999723</v>
       </c>
       <c r="L489" t="n">
         <v>8.804999999999989</v>
@@ -25218,7 +25240,7 @@
         <v>12.43000000000002</v>
       </c>
       <c r="K490" t="n">
-        <v>20.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>8.801999999999989</v>
@@ -25269,7 +25291,7 @@
         <v>12.47000000000002</v>
       </c>
       <c r="K491" t="n">
-        <v>24.6376811594203</v>
+        <v>-5.263157894737629</v>
       </c>
       <c r="L491" t="n">
         <v>8.800999999999989</v>
@@ -25320,7 +25342,7 @@
         <v>12.49000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>-1.818181818181783</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L492" t="n">
         <v>8.797999999999989</v>
@@ -25371,7 +25393,7 @@
         <v>12.52000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>9.090909090909207</v>
+        <v>4.347826086957193</v>
       </c>
       <c r="L493" t="n">
         <v>8.798999999999989</v>
@@ -25422,7 +25444,7 @@
         <v>12.55000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>17.64705882352933</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L494" t="n">
         <v>8.796999999999988</v>
@@ -25473,7 +25495,7 @@
         <v>12.57000000000002</v>
       </c>
       <c r="K495" t="n">
-        <v>25.4901960784311</v>
+        <v>-3.703703703704289</v>
       </c>
       <c r="L495" t="n">
         <v>8.796999999999988</v>
@@ -25524,7 +25546,7 @@
         <v>12.58000000000002</v>
       </c>
       <c r="K496" t="n">
-        <v>27.99999999999966</v>
+        <v>-15.38461538461575</v>
       </c>
       <c r="L496" t="n">
         <v>8.794999999999989</v>
@@ -25575,7 +25597,7 @@
         <v>12.58000000000002</v>
       </c>
       <c r="K497" t="n">
-        <v>24.99999999999972</v>
+        <v>-25.00000000000018</v>
       </c>
       <c r="L497" t="n">
         <v>8.790999999999988</v>
@@ -25626,7 +25648,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K498" t="n">
-        <v>4.761904761904641</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L498" t="n">
         <v>8.782999999999989</v>
@@ -25677,7 +25699,7 @@
         <v>12.62000000000002</v>
       </c>
       <c r="K499" t="n">
-        <v>14.28571428571392</v>
+        <v>15.78947368421023</v>
       </c>
       <c r="L499" t="n">
         <v>8.776999999999989</v>
@@ -25728,7 +25750,7 @@
         <v>12.67000000000002</v>
       </c>
       <c r="K500" t="n">
-        <v>12.19512195121958</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L500" t="n">
         <v>8.784999999999988</v>
@@ -25779,7 +25801,7 @@
         <v>12.68000000000002</v>
       </c>
       <c r="K501" t="n">
-        <v>4.999999999999867</v>
+        <v>26.31578947368441</v>
       </c>
       <c r="L501" t="n">
         <v>8.787999999999988</v>
@@ -25830,7 +25852,7 @@
         <v>12.69000000000002</v>
       </c>
       <c r="K502" t="n">
-        <v>7.317073170731517</v>
+        <v>17.64705882352904</v>
       </c>
       <c r="L502" t="n">
         <v>8.793999999999988</v>
@@ -25881,7 +25903,7 @@
         <v>12.69000000000002</v>
       </c>
       <c r="K503" t="n">
-        <v>10.00000000000022</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L503" t="n">
         <v>8.796999999999988</v>
@@ -25932,7 +25954,7 @@
         <v>12.73000000000002</v>
       </c>
       <c r="K504" t="n">
-        <v>18.18181818181822</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L504" t="n">
         <v>8.80699999999999</v>
@@ -25983,7 +26005,7 @@
         <v>12.76000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>23.40425531914916</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L505" t="n">
         <v>8.817999999999989</v>
@@ -26034,7 +26056,7 @@
         <v>12.83000000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>32.07547169811323</v>
+        <v>76.00000000000051</v>
       </c>
       <c r="L506" t="n">
         <v>8.836999999999989</v>
@@ -26085,7 +26107,7 @@
         <v>12.83000000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>29.41176470588244</v>
+        <v>91.30434782608717</v>
       </c>
       <c r="L507" t="n">
         <v>8.855999999999989</v>
@@ -26136,7 +26158,7 @@
         <v>12.83000000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>26.5306122448981</v>
+        <v>90.47619047619072</v>
       </c>
       <c r="L508" t="n">
         <v>8.876999999999988</v>
@@ -26187,7 +26209,7 @@
         <v>12.84000000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>28.00000000000011</v>
+        <v>88.2352941176473</v>
       </c>
       <c r="L509" t="n">
         <v>8.896999999999988</v>
@@ -26238,7 +26260,7 @@
         <v>12.84000000000002</v>
       </c>
       <c r="K510" t="n">
-        <v>56.09756097560984</v>
+        <v>100</v>
       </c>
       <c r="L510" t="n">
         <v>8.911999999999988</v>
@@ -26289,7 +26311,7 @@
         <v>12.84000000000002</v>
       </c>
       <c r="K511" t="n">
-        <v>51.35135135135156</v>
+        <v>100</v>
       </c>
       <c r="L511" t="n">
         <v>8.927999999999988</v>
@@ -26340,7 +26362,7 @@
         <v>12.84000000000002</v>
       </c>
       <c r="K512" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L512" t="n">
         <v>8.942999999999989</v>
@@ -26391,7 +26413,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K513" t="n">
-        <v>31.57894736842078</v>
+        <v>29.41176470588248</v>
       </c>
       <c r="L513" t="n">
         <v>8.951999999999989</v>
@@ -26442,7 +26464,7 @@
         <v>12.92000000000002</v>
       </c>
       <c r="K514" t="n">
-        <v>45.94594594594603</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L514" t="n">
         <v>8.958999999999989</v>
@@ -26493,7 +26515,7 @@
         <v>12.94000000000002</v>
       </c>
       <c r="K515" t="n">
-        <v>45.94594594594628</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L515" t="n">
         <v>8.964999999999989</v>
@@ -26544,7 +26566,7 @@
         <v>12.95000000000002</v>
       </c>
       <c r="K516" t="n">
-        <v>45.94594594594558</v>
+        <v>-16.66666666666741</v>
       </c>
       <c r="L516" t="n">
         <v>8.96299999999999</v>
@@ -26595,7 +26617,7 @@
         <v>12.97000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>48.71794871794853</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>8.96299999999999</v>
@@ -26646,7 +26668,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K518" t="n">
-        <v>15.99999999999985</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L518" t="n">
         <v>8.94999999999999</v>
@@ -26697,7 +26719,7 @@
         <v>13.14000000000002</v>
       </c>
       <c r="K519" t="n">
-        <v>3.84615384615407</v>
+        <v>-59.99999999999905</v>
       </c>
       <c r="L519" t="n">
         <v>8.93199999999999</v>
@@ -26748,7 +26770,7 @@
         <v>13.17000000000002</v>
       </c>
       <c r="K520" t="n">
-        <v>-11.99999999999997</v>
+        <v>-63.63636363636286</v>
       </c>
       <c r="L520" t="n">
         <v>8.910999999999989</v>
@@ -26799,7 +26821,7 @@
         <v>13.18000000000002</v>
       </c>
       <c r="K521" t="n">
-        <v>-11.99999999999997</v>
+        <v>-64.70588235294038</v>
       </c>
       <c r="L521" t="n">
         <v>8.888999999999989</v>
@@ -26850,7 +26872,7 @@
         <v>13.21000000000002</v>
       </c>
       <c r="K522" t="n">
-        <v>-7.692307692307796</v>
+        <v>-41.93548387096745</v>
       </c>
       <c r="L522" t="n">
         <v>8.869999999999989</v>
@@ -26901,7 +26923,7 @@
         <v>13.21000000000002</v>
       </c>
       <c r="K523" t="n">
-        <v>-7.692307692307796</v>
+        <v>-51.72413793103381</v>
       </c>
       <c r="L523" t="n">
         <v>8.856999999999989</v>
@@ -26952,7 +26974,7 @@
         <v>13.25000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>-23.07692307692271</v>
+        <v>-67.74193548387075</v>
       </c>
       <c r="L524" t="n">
         <v>8.83799999999999</v>
@@ -27003,7 +27025,7 @@
         <v>13.25000000000002</v>
       </c>
       <c r="K525" t="n">
-        <v>-30.61224489795902</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L525" t="n">
         <v>8.81699999999999</v>
@@ -27054,7 +27076,7 @@
         <v>13.29000000000002</v>
       </c>
       <c r="K526" t="n">
-        <v>-56.52173913043441</v>
+        <v>-81.25000000000031</v>
       </c>
       <c r="L526" t="n">
         <v>8.79299999999999</v>
@@ -27105,7 +27127,7 @@
         <v>13.33000000000002</v>
       </c>
       <c r="K527" t="n">
-        <v>-43.99999999999997</v>
+        <v>-39.13043478260916</v>
       </c>
       <c r="L527" t="n">
         <v>8.77099999999999</v>
@@ -27156,7 +27178,7 @@
         <v>13.36000000000002</v>
       </c>
       <c r="K528" t="n">
-        <v>-47.16981132075462</v>
+        <v>-36.36363636363688</v>
       </c>
       <c r="L528" t="n">
         <v>8.75899999999999</v>
@@ -27207,7 +27229,7 @@
         <v>13.41000000000002</v>
       </c>
       <c r="K529" t="n">
-        <v>-36.84210526315803</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>8.75599999999999</v>
@@ -27258,7 +27280,7 @@
         <v>13.45000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>-40.98360655737709</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L530" t="n">
         <v>8.751999999999992</v>
@@ -27309,7 +27331,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K531" t="n">
-        <v>-30.30303030303054</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L531" t="n">
         <v>8.753999999999991</v>
@@ -27360,7 +27382,7 @@
         <v>13.51000000000002</v>
       </c>
       <c r="K532" t="n">
-        <v>-28.35820895522415</v>
+        <v>0</v>
       </c>
       <c r="L532" t="n">
         <v>8.753999999999991</v>
@@ -27411,7 +27433,7 @@
         <v>13.54000000000002</v>
       </c>
       <c r="K533" t="n">
-        <v>-25.00000000000014</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L533" t="n">
         <v>8.750999999999991</v>
@@ -27462,7 +27484,7 @@
         <v>13.55000000000001</v>
       </c>
       <c r="K534" t="n">
-        <v>-26.98412698412709</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L534" t="n">
         <v>8.752999999999989</v>
@@ -27513,7 +27535,7 @@
         <v>13.58000000000001</v>
       </c>
       <c r="K535" t="n">
-        <v>-34.37500000000036</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L535" t="n">
         <v>8.75199999999999</v>
@@ -27564,7 +27586,7 @@
         <v>13.58000000000001</v>
       </c>
       <c r="K536" t="n">
-        <v>-33.33333333333352</v>
+        <v>-4</v>
       </c>
       <c r="L536" t="n">
         <v>8.75499999999999</v>
@@ -27615,7 +27637,7 @@
         <v>13.58000000000001</v>
       </c>
       <c r="K537" t="n">
-        <v>-37.70491803278743</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L537" t="n">
         <v>8.753999999999989</v>
@@ -27666,7 +27688,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K538" t="n">
-        <v>-24.00000000000027</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L538" t="n">
         <v>8.753999999999989</v>
@@ -27717,7 +27739,7 @@
         <v>13.62000000000001</v>
       </c>
       <c r="K539" t="n">
-        <v>-12.50000000000033</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L539" t="n">
         <v>8.750999999999989</v>
@@ -27768,7 +27790,7 @@
         <v>13.64000000000001</v>
       </c>
       <c r="K540" t="n">
-        <v>-2.127659574468085</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L540" t="n">
         <v>8.753999999999989</v>
@@ -27819,7 +27841,7 @@
         <v>13.68000000000001</v>
       </c>
       <c r="K541" t="n">
-        <v>8.000000000000327</v>
+        <v>5.882352941177453</v>
       </c>
       <c r="L541" t="n">
         <v>8.75599999999999</v>
@@ -27870,7 +27892,7 @@
         <v>13.72000000000001</v>
       </c>
       <c r="K542" t="n">
-        <v>-5.882352941176429</v>
+        <v>0</v>
       </c>
       <c r="L542" t="n">
         <v>8.752999999999989</v>
@@ -27921,7 +27943,7 @@
         <v>13.76000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>1.818181818182123</v>
+        <v>14.28571428571477</v>
       </c>
       <c r="L543" t="n">
         <v>8.756999999999987</v>
@@ -27972,7 +27994,7 @@
         <v>13.78000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>13.20754716981152</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L544" t="n">
         <v>8.761999999999988</v>
@@ -28023,7 +28045,7 @@
         <v>13.78000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>13.20754716981152</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L545" t="n">
         <v>8.769999999999989</v>
@@ -28074,7 +28096,7 @@
         <v>13.81000000000001</v>
       </c>
       <c r="K546" t="n">
-        <v>26.92307692307699</v>
+        <v>47.8260869565214</v>
       </c>
       <c r="L546" t="n">
         <v>8.780999999999988</v>
@@ -28125,7 +28147,7 @@
         <v>13.83000000000001</v>
       </c>
       <c r="K547" t="n">
-        <v>16.00000000000018</v>
+        <v>47.8260869565214</v>
       </c>
       <c r="L547" t="n">
         <v>8.789999999999988</v>
@@ -28176,7 +28198,7 @@
         <v>13.86000000000001</v>
       </c>
       <c r="K548" t="n">
-        <v>16.00000000000018</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L548" t="n">
         <v>8.797999999999989</v>
@@ -28227,7 +28249,7 @@
         <v>13.87000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>4.347826086956454</v>
+        <v>13.04347826086916</v>
       </c>
       <c r="L549" t="n">
         <v>8.80299999999999</v>
@@ -28278,7 +28300,7 @@
         <v>13.92000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>23.40425531914887</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L550" t="n">
         <v>8.810999999999989</v>
@@ -28329,7 +28351,7 @@
         <v>13.96000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>4.347826086956824</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L551" t="n">
         <v>8.810999999999989</v>
@@ -28380,7 +28402,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K552" t="n">
-        <v>10.20408163265324</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L552" t="n">
         <v>8.81899999999999</v>
@@ -28431,7 +28453,7 @@
         <v>14.01000000000001</v>
       </c>
       <c r="K553" t="n">
-        <v>19.14893617021278</v>
+        <v>13.04347826086937</v>
       </c>
       <c r="L553" t="n">
         <v>8.823999999999989</v>
@@ -28482,7 +28504,7 @@
         <v>14.04000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>22.44897959183697</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L554" t="n">
         <v>8.829999999999989</v>
@@ -28533,7 +28555,7 @@
         <v>14.05000000000001</v>
       </c>
       <c r="K555" t="n">
-        <v>31.91489361702131</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L555" t="n">
         <v>8.836999999999989</v>
@@ -28584,7 +28606,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K556" t="n">
-        <v>33.33333333333333</v>
+        <v>30.43478260869572</v>
       </c>
       <c r="L556" t="n">
         <v>8.84199999999999</v>
@@ -28635,7 +28657,7 @@
         <v>14.07000000000001</v>
       </c>
       <c r="K557" t="n">
-        <v>34.69387755102038</v>
+        <v>52.3809523809519</v>
       </c>
       <c r="L557" t="n">
         <v>8.849999999999991</v>
@@ -28686,7 +28708,7 @@
         <v>14.11000000000001</v>
       </c>
       <c r="K558" t="n">
-        <v>45.09803921568603</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L558" t="n">
         <v>8.864999999999991</v>
@@ -28737,7 +28759,7 @@
         <v>14.11000000000001</v>
       </c>
       <c r="K559" t="n">
-        <v>42.85714285714265</v>
+        <v>57.89473684210565</v>
       </c>
       <c r="L559" t="n">
         <v>8.880999999999991</v>
@@ -28788,7 +28810,7 @@
         <v>14.15000000000001</v>
       </c>
       <c r="K560" t="n">
-        <v>29.41176470588244</v>
+        <v>57.89473684210565</v>
       </c>
       <c r="L560" t="n">
         <v>8.887999999999991</v>
@@ -28839,7 +28861,7 @@
         <v>14.16000000000001</v>
       </c>
       <c r="K561" t="n">
-        <v>24.99999999999991</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L561" t="n">
         <v>8.899999999999991</v>
@@ -28890,7 +28912,7 @@
         <v>14.17000000000001</v>
       </c>
       <c r="K562" t="n">
-        <v>33.3333333333336</v>
+        <v>37.5000000000007</v>
       </c>
       <c r="L562" t="n">
         <v>8.906999999999991</v>
@@ -28941,7 +28963,7 @@
         <v>14.19000000000001</v>
       </c>
       <c r="K563" t="n">
-        <v>20.93023255813969</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L563" t="n">
         <v>8.910999999999991</v>
@@ -28992,7 +29014,7 @@
         <v>14.21000000000001</v>
       </c>
       <c r="K564" t="n">
-        <v>20.93023255813969</v>
+        <v>12.5</v>
       </c>
       <c r="L564" t="n">
         <v>8.913999999999991</v>
@@ -29043,7 +29065,7 @@
         <v>14.23000000000001</v>
       </c>
       <c r="K565" t="n">
-        <v>15.55555555555577</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L565" t="n">
         <v>8.913999999999991</v>
@@ -29094,7 +29116,7 @@
         <v>14.23000000000001</v>
       </c>
       <c r="K566" t="n">
-        <v>9.523809523809826</v>
+        <v>-12.5</v>
       </c>
       <c r="L566" t="n">
         <v>8.912999999999991</v>
@@ -29145,7 +29167,7 @@
         <v>14.25000000000001</v>
       </c>
       <c r="K567" t="n">
-        <v>19.04761904761923</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L567" t="n">
         <v>8.912999999999991</v>
@@ -29196,7 +29218,7 @@
         <v>14.26000000000001</v>
       </c>
       <c r="K568" t="n">
-        <v>30.00000000000004</v>
+        <v>-20</v>
       </c>
       <c r="L568" t="n">
         <v>8.909999999999991</v>
@@ -29247,7 +29269,7 @@
         <v>14.27000000000001</v>
       </c>
       <c r="K569" t="n">
-        <v>35.00000000000058</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L569" t="n">
         <v>8.907999999999991</v>
@@ -29298,7 +29320,7 @@
         <v>14.29000000000001</v>
       </c>
       <c r="K570" t="n">
-        <v>18.91891891891931</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L570" t="n">
         <v>8.907999999999991</v>
@@ -29349,7 +29371,7 @@
         <v>14.29000000000001</v>
       </c>
       <c r="K571" t="n">
-        <v>33.33333333333369</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>8.906999999999991</v>
@@ -29400,7 +29422,7 @@
         <v>14.31000000000001</v>
       </c>
       <c r="K572" t="n">
-        <v>29.03225806451654</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L572" t="n">
         <v>8.908999999999992</v>
@@ -29451,7 +29473,7 @@
         <v>14.33000000000001</v>
       </c>
       <c r="K573" t="n">
-        <v>18.75000000000045</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>8.910999999999991</v>
@@ -29502,7 +29524,7 @@
         <v>14.34000000000001</v>
       </c>
       <c r="K574" t="n">
-        <v>6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L574" t="n">
         <v>8.909999999999993</v>
@@ -29604,7 +29626,7 @@
         <v>14.38000000000001</v>
       </c>
       <c r="K576" t="n">
-        <v>6.25</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L576" t="n">
         <v>8.912999999999993</v>
@@ -29655,7 +29677,7 @@
         <v>14.38000000000001</v>
       </c>
       <c r="K577" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L577" t="n">
         <v>8.913999999999993</v>
@@ -29706,7 +29728,7 @@
         <v>14.45000000000001</v>
       </c>
       <c r="K578" t="n">
-        <v>-29.41176470588272</v>
+        <v>-44.44444444444499</v>
       </c>
       <c r="L578" t="n">
         <v>8.906999999999993</v>
@@ -29757,7 +29779,7 @@
         <v>14.49000000000001</v>
       </c>
       <c r="K579" t="n">
-        <v>-15.78947368421038</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L579" t="n">
         <v>8.902999999999992</v>
@@ -29808,7 +29830,7 @@
         <v>14.52000000000001</v>
       </c>
       <c r="K580" t="n">
-        <v>-13.5135135135138</v>
+        <v>-21.73913043478288</v>
       </c>
       <c r="L580" t="n">
         <v>8.897999999999993</v>
@@ -29859,7 +29881,7 @@
         <v>14.52000000000001</v>
       </c>
       <c r="K581" t="n">
-        <v>-16.66666666666691</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L581" t="n">
         <v>8.892999999999992</v>
@@ -29910,7 +29932,7 @@
         <v>14.55000000000001</v>
       </c>
       <c r="K582" t="n">
-        <v>-21.05263157894754</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L582" t="n">
         <v>8.882999999999992</v>
@@ -29961,7 +29983,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K583" t="n">
-        <v>-2.43902439024386</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L583" t="n">
         <v>8.879999999999992</v>
@@ -30012,7 +30034,7 @@
         <v>14.66000000000001</v>
       </c>
       <c r="K584" t="n">
-        <v>-20</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L584" t="n">
         <v>8.871999999999991</v>
@@ -30063,7 +30085,7 @@
         <v>14.66000000000001</v>
       </c>
       <c r="K585" t="n">
-        <v>-16.27906976744194</v>
+        <v>-35.71428571428522</v>
       </c>
       <c r="L585" t="n">
         <v>8.864999999999991</v>
@@ -30114,7 +30136,7 @@
         <v>14.68000000000001</v>
       </c>
       <c r="K586" t="n">
-        <v>-20</v>
+        <v>-39.99999999999941</v>
       </c>
       <c r="L586" t="n">
         <v>8.852999999999991</v>
@@ -30165,7 +30187,7 @@
         <v>14.69000000000001</v>
       </c>
       <c r="K587" t="n">
-        <v>-27.27272727272742</v>
+        <v>-24.99999999999982</v>
       </c>
       <c r="L587" t="n">
         <v>8.839999999999991</v>
@@ -30216,7 +30238,7 @@
         <v>14.71000000000001</v>
       </c>
       <c r="K588" t="n">
-        <v>-33.33333333333333</v>
+        <v>-54.5454545454544</v>
       </c>
       <c r="L588" t="n">
         <v>8.83199999999999</v>
@@ -30267,7 +30289,7 @@
         <v>14.73000000000001</v>
       </c>
       <c r="K589" t="n">
-        <v>-39.13043478260856</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L589" t="n">
         <v>8.817999999999991</v>
@@ -30318,7 +30340,7 @@
         <v>14.73000000000001</v>
       </c>
       <c r="K590" t="n">
-        <v>-36.3636363636363</v>
+        <v>-52.3809523809519</v>
       </c>
       <c r="L590" t="n">
         <v>8.806999999999992</v>
@@ -30369,7 +30391,7 @@
         <v>14.75000000000001</v>
       </c>
       <c r="K591" t="n">
-        <v>-30.43478260869572</v>
+        <v>-30.00000000000009</v>
       </c>
       <c r="L591" t="n">
         <v>8.797999999999991</v>
@@ -30420,7 +30442,7 @@
         <v>14.77000000000001</v>
       </c>
       <c r="K592" t="n">
-        <v>-30.43478260869572</v>
+        <v>-52.94117647058923</v>
       </c>
       <c r="L592" t="n">
         <v>8.79399999999999</v>
@@ -30471,7 +30493,7 @@
         <v>14.82000000000001</v>
       </c>
       <c r="K593" t="n">
-        <v>-14.28571428571428</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L593" t="n">
         <v>8.78999999999999</v>
@@ -30522,7 +30544,7 @@
         <v>14.83000000000001</v>
       </c>
       <c r="K594" t="n">
-        <v>-10.20408163265316</v>
+        <v>17.64705882352904</v>
       </c>
       <c r="L594" t="n">
         <v>8.792999999999989</v>
@@ -30573,7 +30595,7 @@
         <v>14.84000000000001</v>
       </c>
       <c r="K595" t="n">
-        <v>-10.20408163265316</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L595" t="n">
         <v>8.794999999999991</v>
@@ -30624,7 +30646,7 @@
         <v>14.88000000000001</v>
       </c>
       <c r="K596" t="n">
-        <v>-7.999999999999773</v>
+        <v>47.36842105263256</v>
       </c>
       <c r="L596" t="n">
         <v>8.80299999999999</v>
@@ -30675,7 +30697,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K597" t="n">
-        <v>-3.846153846153741</v>
+        <v>68.42105263157954</v>
       </c>
       <c r="L597" t="n">
         <v>8.813999999999989</v>
@@ -30726,7 +30748,7 @@
         <v>14.95000000000001</v>
       </c>
       <c r="K598" t="n">
-        <v>0</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L598" t="n">
         <v>8.82199999999999</v>
@@ -30777,7 +30799,7 @@
         <v>14.97000000000001</v>
       </c>
       <c r="K599" t="n">
-        <v>-4.166666666666929</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L599" t="n">
         <v>8.833999999999991</v>
@@ -30828,7 +30850,7 @@
         <v>14.99000000000001</v>
       </c>
       <c r="K600" t="n">
-        <v>-2.127659574468037</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L600" t="n">
         <v>8.843999999999991</v>
@@ -30879,7 +30901,7 @@
         <v>14.99000000000001</v>
       </c>
       <c r="K601" t="n">
-        <v>-2.127659574468037</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L601" t="n">
         <v>8.85199999999999</v>
@@ -30930,7 +30952,7 @@
         <v>15.04000000000001</v>
       </c>
       <c r="K602" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L602" t="n">
         <v>8.862999999999991</v>
@@ -30981,7 +31003,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K603" t="n">
-        <v>-2.127659574468407</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L603" t="n">
         <v>8.865999999999991</v>
@@ -31032,7 +31054,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K604" t="n">
-        <v>12.1951219512192</v>
+        <v>13.04347826086916</v>
       </c>
       <c r="L604" t="n">
         <v>8.867999999999991</v>
@@ -31083,7 +31105,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K605" t="n">
-        <v>12.1951219512192</v>
+        <v>-5.263157894737629</v>
       </c>
       <c r="L605" t="n">
         <v>8.870999999999992</v>
@@ -31134,7 +31156,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K606" t="n">
-        <v>17.94871794871746</v>
+        <v>-17.6470588235299</v>
       </c>
       <c r="L606" t="n">
         <v>8.869999999999994</v>
@@ -31185,7 +31207,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K607" t="n">
-        <v>21.05263157894735</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L607" t="n">
         <v>8.866999999999994</v>
@@ -31236,7 +31258,7 @@
         <v>15.07000000000001</v>
       </c>
       <c r="K608" t="n">
-        <v>27.77777777777758</v>
+        <v>0</v>
       </c>
       <c r="L608" t="n">
         <v>8.868999999999994</v>
@@ -31287,7 +31309,7 @@
         <v>15.11000000000001</v>
       </c>
       <c r="K609" t="n">
-        <v>42.10526315789449</v>
+        <v>49.99999999999926</v>
       </c>
       <c r="L609" t="n">
         <v>8.872999999999994</v>
@@ -31338,7 +31360,7 @@
         <v>15.14000000000001</v>
       </c>
       <c r="K610" t="n">
-        <v>31.70731707317078</v>
+        <v>20.00000000000047</v>
       </c>
       <c r="L610" t="n">
         <v>8.875999999999994</v>
@@ -31389,7 +31411,7 @@
         <v>15.15000000000001</v>
       </c>
       <c r="K611" t="n">
-        <v>24.99999999999967</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L611" t="n">
         <v>8.877999999999995</v>
@@ -31440,7 +31462,7 @@
         <v>15.15000000000001</v>
       </c>
       <c r="K612" t="n">
-        <v>21.05263157894715</v>
+        <v>0</v>
       </c>
       <c r="L612" t="n">
         <v>8.874999999999995</v>
@@ -31491,7 +31513,7 @@
         <v>15.16000000000002</v>
       </c>
       <c r="K613" t="n">
-        <v>11.76470588235303</v>
+        <v>11.11111111111243</v>
       </c>
       <c r="L613" t="n">
         <v>8.875999999999994</v>
@@ -31542,7 +31564,7 @@
         <v>15.17000000000002</v>
       </c>
       <c r="K614" t="n">
-        <v>11.76470588235303</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L614" t="n">
         <v>8.877999999999993</v>
@@ -31593,7 +31615,7 @@
         <v>15.22000000000002</v>
       </c>
       <c r="K615" t="n">
-        <v>0</v>
+        <v>-19.99999999999905</v>
       </c>
       <c r="L615" t="n">
         <v>8.874999999999993</v>
@@ -31644,7 +31666,7 @@
         <v>15.22000000000002</v>
       </c>
       <c r="K616" t="n">
-        <v>-11.76470588235303</v>
+        <v>-19.99999999999905</v>
       </c>
       <c r="L616" t="n">
         <v>8.871999999999993</v>
@@ -31695,7 +31717,7 @@
         <v>15.23000000000002</v>
       </c>
       <c r="K617" t="n">
-        <v>-15.15151515151512</v>
+        <v>-12.49999999999945</v>
       </c>
       <c r="L617" t="n">
         <v>8.869999999999992</v>
@@ -31746,7 +31768,7 @@
         <v>15.24000000000002</v>
       </c>
       <c r="K618" t="n">
-        <v>-3.448275862068838</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L618" t="n">
         <v>8.866999999999992</v>
@@ -31797,7 +31819,7 @@
         <v>15.24000000000002</v>
       </c>
       <c r="K619" t="n">
-        <v>-11.11111111111067</v>
+        <v>-39.99999999999964</v>
       </c>
       <c r="L619" t="n">
         <v>8.859999999999992</v>
@@ -31848,7 +31870,7 @@
         <v>15.27000000000002</v>
       </c>
       <c r="K620" t="n">
-        <v>-14.28571428571374</v>
+        <v>-49.99999999999851</v>
       </c>
       <c r="L620" t="n">
         <v>8.852999999999993</v>
@@ -31899,7 +31921,7 @@
         <v>15.27000000000002</v>
       </c>
       <c r="K621" t="n">
-        <v>-14.28571428571374</v>
+        <v>-49.99999999999851</v>
       </c>
       <c r="L621" t="n">
         <v>8.846999999999992</v>
@@ -31950,7 +31972,7 @@
         <v>15.29000000000002</v>
       </c>
       <c r="K622" t="n">
-        <v>-43.99999999999955</v>
+        <v>-69.23076923077008</v>
       </c>
       <c r="L622" t="n">
         <v>8.838999999999993</v>
@@ -32001,7 +32023,7 @@
         <v>15.31000000000002</v>
       </c>
       <c r="K623" t="n">
-        <v>-41.66666666666586</v>
+        <v>-85.71428571428608</v>
       </c>
       <c r="L623" t="n">
         <v>8.827999999999992</v>
@@ -32052,7 +32074,7 @@
         <v>15.32000000000002</v>
       </c>
       <c r="K624" t="n">
-        <v>-43.99999999999915</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L624" t="n">
         <v>8.814999999999994</v>
@@ -32103,7 +32125,7 @@
         <v>15.34000000000002</v>
       </c>
       <c r="K625" t="n">
-        <v>-33.3333333333329</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L625" t="n">
         <v>8.808999999999994</v>
@@ -32154,7 +32176,7 @@
         <v>15.34000000000002</v>
       </c>
       <c r="K626" t="n">
-        <v>-33.3333333333329</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L626" t="n">
         <v>8.802999999999994</v>
@@ -32205,7 +32227,7 @@
         <v>15.37000000000002</v>
       </c>
       <c r="K627" t="n">
-        <v>-39.99999999999941</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L627" t="n">
         <v>8.792999999999994</v>
@@ -32256,7 +32278,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K628" t="n">
-        <v>-27.27272727272708</v>
+        <v>-37.5000000000007</v>
       </c>
       <c r="L628" t="n">
         <v>8.786999999999994</v>
@@ -32307,7 +32329,7 @@
         <v>15.43000000000001</v>
       </c>
       <c r="K629" t="n">
-        <v>-50</v>
+        <v>-37.5000000000007</v>
       </c>
       <c r="L629" t="n">
         <v>8.777999999999993</v>
@@ -32358,7 +32380,7 @@
         <v>15.48000000000001</v>
       </c>
       <c r="K630" t="n">
-        <v>-23.52941176470579</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L630" t="n">
         <v>8.776999999999992</v>

--- a/BackTest/2019-11-15 BackTest VET.xlsx
+++ b/BackTest/2019-11-15 BackTest VET.xlsx
@@ -451,17 +451,13 @@
         <v>7.677166666666663</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.02</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,2639 +486,2165 @@
         <v>7.685499999999996</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>8.02</v>
       </c>
-      <c r="K3" t="n">
+      <c r="C4" t="n">
         <v>8.02</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="D4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>199000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.69383333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>728865.7377000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.700999999999996</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F6" t="n">
+        <v>153592.323</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.70883333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>797723.5931000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.71683333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>73704.04979999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.724333333333331</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F9" t="n">
+        <v>150475.7859</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.731499999999998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>354921.6955</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.740499999999997</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>902193.3688128458</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.750999999999997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>528419.5815408138</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.760666666666665</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>701040.6078999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.770833333333331</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F14" t="n">
+        <v>545977.1059</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.781999999999998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34764.297</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.793833333333331</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>103594.3738</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.805833333333331</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>109425.8109</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.817333333333331</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18544.8705</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.827333333333331</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2186753.0127</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.836499999999998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>38968.5492</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.845666666666665</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>108803.7954</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.854666666666665</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F22" t="n">
+        <v>87187.27469999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.862999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F23" t="n">
+        <v>304225.7134</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.871999999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F24" t="n">
+        <v>641231.5898</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.880833333333332</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F25" t="n">
+        <v>94769.53999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.889499999999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>156087.9706</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.898666666666665</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>32476.4833</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.907666666666666</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F28" t="n">
+        <v>127723.2732</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7.916499999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8224.637199999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.925166666666666</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.934333333333332</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1508.2452</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.943333333333332</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>280997.9581</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.952833333333332</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2273954.9516</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.964333333333331</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="F34" t="n">
+        <v>178289.6502410843</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.973666666666665</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F35" t="n">
+        <v>61</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7.985999999999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F36" t="n">
+        <v>44227.6036</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.994666666666665</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47870.4502</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.003666666666666</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>934.6968000000001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.012666666666666</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F39" t="n">
+        <v>69966.6122</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.020833333333332</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F40" t="n">
+        <v>123761.6137</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.028833333333331</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F41" t="n">
+        <v>99836.33488586957</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.038499999999997</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F42" t="n">
+        <v>222064.5313995086</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.045666666666664</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>155605.301</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8.048999999999998</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61925.9232</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8.05083333333333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>800137.5097000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.052666666666662</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>792792.1477</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8.055499999999997</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>120863.1736</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.056499999999994</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2398.6392</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.058499999999993</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>134158.5375</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8.05866666666666</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>145591.2158</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.057833333333328</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F51" t="n">
+        <v>239452.4578</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8.055999999999994</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F52" t="n">
+        <v>250</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8.053833333333326</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F53" t="n">
+        <v>80762.8544</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.051833333333327</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4683.9097</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.04966666666666</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F55" t="n">
+        <v>320734.0438</v>
+      </c>
+      <c r="G55" t="n">
+        <v>8.048833333333327</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1410.7454</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.047499999999992</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F57" t="n">
+        <v>195058.1255</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8.045499999999993</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="F58" t="n">
+        <v>99190.3458</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8.045166666666661</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F59" t="n">
+        <v>766514.3619537406</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.045166666666661</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1307981.214</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8.04566666666666</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F61" t="n">
+        <v>61230.3286</v>
+      </c>
+      <c r="G61" t="n">
+        <v>8.046999999999995</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F62" t="n">
+        <v>463607.9227</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8.050166666666662</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4291.7184</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8.052666666666662</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>199000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.69383333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="F64" t="n">
+        <v>123427.1519</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.055166666666663</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F5" t="n">
-        <v>728865.7377000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.700999999999996</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F6" t="n">
-        <v>153592.323</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.70883333333333</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F7" t="n">
-        <v>797723.5931000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.71683333333333</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F8" t="n">
-        <v>73704.04979999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.724333333333331</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F9" t="n">
-        <v>150475.7859</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.731499999999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F10" t="n">
-        <v>354921.6955</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.740499999999997</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="F11" t="n">
-        <v>902193.3688128458</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.750999999999997</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>528419.5815408138</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7.760666666666665</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="F13" t="n">
-        <v>701040.6078999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.770833333333331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="F14" t="n">
-        <v>545977.1059</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7.781999999999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>34764.297</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.793833333333331</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>103594.3738</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.805833333333331</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>109425.8109</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.817333333333331</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>18544.8705</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.827333333333331</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2186753.0127</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.836499999999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>38968.5492</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7.845666666666665</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>108803.7954</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.854666666666665</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F22" t="n">
-        <v>87187.27469999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.862999999999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F23" t="n">
-        <v>304225.7134</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7.871999999999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F24" t="n">
-        <v>641231.5898</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.880833333333332</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F25" t="n">
-        <v>94769.53999999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.889499999999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F26" t="n">
-        <v>156087.9706</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.898666666666665</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>8</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>32476.4833</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7.907666666666666</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F28" t="n">
-        <v>127723.2732</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.916499999999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F29" t="n">
-        <v>8224.637199999999</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.925166666666666</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C30" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>7.934333333333332</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C31" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D31" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1508.2452</v>
-      </c>
-      <c r="G31" t="n">
-        <v>7.943333333333332</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>280997.9581</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.952833333333332</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K32" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2273954.9516</v>
-      </c>
-      <c r="G33" t="n">
-        <v>7.964333333333331</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="C34" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E34" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="F34" t="n">
-        <v>178289.6502410843</v>
-      </c>
-      <c r="G34" t="n">
-        <v>7.973666666666665</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C35" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F35" t="n">
-        <v>61</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7.985999999999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="K35" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="D36" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F36" t="n">
-        <v>44227.6036</v>
-      </c>
-      <c r="G36" t="n">
-        <v>7.994666666666665</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K36" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="C37" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F37" t="n">
-        <v>47870.4502</v>
-      </c>
-      <c r="G37" t="n">
-        <v>8.003666666666666</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>934.6968000000001</v>
-      </c>
-      <c r="G38" t="n">
-        <v>8.012666666666666</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="D39" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F39" t="n">
-        <v>69966.6122</v>
-      </c>
-      <c r="G39" t="n">
-        <v>8.020833333333332</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="F40" t="n">
-        <v>123761.6137</v>
-      </c>
-      <c r="G40" t="n">
-        <v>8.028833333333331</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D41" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="F41" t="n">
-        <v>99836.33488586957</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.038499999999997</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K41" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="E42" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="F42" t="n">
-        <v>222064.5313995086</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8.045666666666664</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K42" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C43" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D43" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F43" t="n">
-        <v>155605.301</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8.048999999999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E44" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>61925.9232</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8.05083333333333</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D45" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="E45" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F45" t="n">
-        <v>800137.5097000001</v>
-      </c>
-      <c r="G45" t="n">
-        <v>8.052666666666662</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K45" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E46" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>792792.1477</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8.055499999999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K46" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F47" t="n">
-        <v>120863.1736</v>
-      </c>
-      <c r="G47" t="n">
-        <v>8.056499999999994</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E48" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2398.6392</v>
-      </c>
-      <c r="G48" t="n">
-        <v>8.058499999999993</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>134158.5375</v>
-      </c>
-      <c r="G49" t="n">
-        <v>8.05866666666666</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K49" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C50" t="n">
-        <v>8</v>
-      </c>
-      <c r="D50" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E50" t="n">
-        <v>8</v>
-      </c>
-      <c r="F50" t="n">
-        <v>145591.2158</v>
-      </c>
-      <c r="G50" t="n">
-        <v>8.057833333333328</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K50" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D51" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F51" t="n">
-        <v>239452.4578</v>
-      </c>
-      <c r="G51" t="n">
-        <v>8.055999999999994</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K51" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C52" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D52" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E52" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F52" t="n">
-        <v>250</v>
-      </c>
-      <c r="G52" t="n">
-        <v>8.053833333333326</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K52" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C53" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D53" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E53" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F53" t="n">
-        <v>80762.8544</v>
-      </c>
-      <c r="G53" t="n">
-        <v>8.051833333333327</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K53" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D54" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E54" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4683.9097</v>
-      </c>
-      <c r="G54" t="n">
-        <v>8.04966666666666</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>8</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8</v>
-      </c>
-      <c r="D55" t="n">
-        <v>8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="F55" t="n">
-        <v>320734.0438</v>
-      </c>
-      <c r="G55" t="n">
-        <v>8.048833333333327</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8</v>
-      </c>
-      <c r="K55" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="C56" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="D56" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="E56" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1410.7454</v>
-      </c>
-      <c r="G56" t="n">
-        <v>8.047499999999992</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="K56" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="D57" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="E57" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="F57" t="n">
-        <v>195058.1255</v>
-      </c>
-      <c r="G57" t="n">
-        <v>8.045499999999993</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="D58" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E58" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="F58" t="n">
-        <v>99190.3458</v>
-      </c>
-      <c r="G58" t="n">
-        <v>8.045166666666661</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K58" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C59" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D59" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F59" t="n">
-        <v>766514.3619537406</v>
-      </c>
-      <c r="G59" t="n">
-        <v>8.045166666666661</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K59" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C60" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="D60" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1307981.214</v>
-      </c>
-      <c r="G60" t="n">
-        <v>8.04566666666666</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K60" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C61" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F61" t="n">
-        <v>61230.3286</v>
-      </c>
-      <c r="G61" t="n">
-        <v>8.046999999999995</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K61" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C62" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="D62" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F62" t="n">
-        <v>463607.9227</v>
-      </c>
-      <c r="G62" t="n">
-        <v>8.050166666666662</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="K62" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C63" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="D63" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4291.7184</v>
-      </c>
-      <c r="G63" t="n">
-        <v>8.052666666666662</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K63" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C64" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="D64" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="F64" t="n">
-        <v>123427.1519</v>
-      </c>
-      <c r="G64" t="n">
-        <v>8.055166666666663</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K64" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +2672,14 @@
         <v>8.057666666666663</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="K65" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3199,14 +2713,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3240,14 +2748,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3281,14 +2783,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3322,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3363,14 +2853,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3404,14 +2888,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3445,14 +2923,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3486,14 +2958,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3527,14 +2993,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3609,14 +3063,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3098,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3691,14 +3133,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3168,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3767,22 +3197,14 @@
         <v>8.066666666666663</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>8</v>
-      </c>
-      <c r="K80" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3810,22 +3232,14 @@
         <v>8.067499999999997</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K81" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3853,22 +3267,14 @@
         <v>8.068499999999997</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K82" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3896,22 +3302,14 @@
         <v>8.069333333333329</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3939,22 +3337,14 @@
         <v>8.068666666666664</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>8</v>
-      </c>
-      <c r="K84" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +3372,14 @@
         <v>8.068166666666663</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4025,22 +3407,14 @@
         <v>8.067999999999996</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K86" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4068,22 +3442,14 @@
         <v>8.06883333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K87" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4111,22 +3477,14 @@
         <v>8.070166666666664</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="K88" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4154,22 +3512,14 @@
         <v>8.07133333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K89" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4197,22 +3547,14 @@
         <v>8.070499999999997</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K90" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +3582,14 @@
         <v>8.071666666666664</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K91" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +3617,14 @@
         <v>8.072499999999996</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K92" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +3652,14 @@
         <v>8.070999999999996</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4369,22 +3687,14 @@
         <v>8.071166666666663</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K94" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +3722,14 @@
         <v>8.067666666666664</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K95" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4455,22 +3757,14 @@
         <v>8.067499999999997</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4498,22 +3792,14 @@
         <v>8.066666666666665</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4541,22 +3827,14 @@
         <v>8.065999999999997</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4584,22 +3862,14 @@
         <v>8.06583333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K99" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4627,22 +3897,14 @@
         <v>8.065999999999997</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K100" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4670,22 +3932,14 @@
         <v>8.06433333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K101" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4713,22 +3967,14 @@
         <v>8.064499999999997</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4002,14 @@
         <v>8.064999999999996</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K103" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4799,22 +4037,14 @@
         <v>8.065999999999997</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K104" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4842,22 +4072,14 @@
         <v>8.067666666666664</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4885,22 +4107,14 @@
         <v>8.069333333333329</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K106" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4928,22 +4142,14 @@
         <v>8.070833333333331</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K107" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4977,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5018,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5059,14 +4253,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5100,14 +4288,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +4323,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5182,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +4393,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +4428,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5346,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5387,14 +4533,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5428,14 +4568,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5469,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +4673,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5592,14 +4708,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5633,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5715,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5756,14 +4848,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5797,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5838,14 +4918,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5958,19 +5020,13 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>1.044875311720698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -6034,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -6069,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -6104,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -6139,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -6174,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -6209,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -6244,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -6279,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6314,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6349,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6384,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6419,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6524,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6559,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6594,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6629,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -7714,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -9006,13 +8062,17 @@
         <v>8.460833333333328</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="K219" t="n">
+        <v>8.43</v>
+      </c>
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
@@ -9047,8 +8107,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9082,8 +8148,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9117,8 +8189,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9152,8 +8230,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9187,8 +8271,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9222,8 +8312,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9257,8 +8353,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9292,8 +8394,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9327,8 +8435,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9362,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +8517,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +8558,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9467,8 +8599,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9502,8 +8640,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9537,8 +8681,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +8722,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +8763,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9642,8 +8804,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9677,8 +8845,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9712,8 +8886,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9747,8 +8927,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9782,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9817,8 +9009,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9852,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9887,8 +9091,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9922,8 +9132,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9957,8 +9173,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9992,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10062,8 +9296,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10094,13 +9334,19 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M250" t="n">
-        <v>1</v>
+        <v>1.0305871886121</v>
       </c>
     </row>
     <row r="251">
@@ -10129,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -10164,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
@@ -15656,14 +14902,20 @@
         <v>8.440999999999999</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>8.33</v>
+      </c>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15691,14 +14943,20 @@
         <v>8.437999999999999</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15726,14 +14984,20 @@
         <v>8.434833333333332</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15761,14 +15025,20 @@
         <v>8.431333333333331</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15796,14 +15066,20 @@
         <v>8.427499999999998</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15831,14 +15107,20 @@
         <v>8.422333333333331</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15866,14 +15148,20 @@
         <v>8.417833333333331</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>8.26</v>
+      </c>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15901,14 +15189,20 @@
         <v>8.413499999999997</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15936,14 +15230,20 @@
         <v>8.408999999999999</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15971,14 +15271,20 @@
         <v>8.405166666666664</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16006,14 +15312,20 @@
         <v>8.401333333333332</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16041,14 +15353,20 @@
         <v>8.397999999999998</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16076,14 +15394,20 @@
         <v>8.394499999999997</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16111,14 +15435,20 @@
         <v>8.390666666666664</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>8.31</v>
+      </c>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16146,14 +15476,20 @@
         <v>8.387666666666664</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>8.35</v>
+      </c>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16181,14 +15517,20 @@
         <v>8.384666666666664</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>8.390000000000001</v>
+      </c>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16223,7 +15565,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16258,7 +15604,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16293,7 +15643,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +15682,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16363,7 +15721,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16398,7 +15760,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16433,7 +15799,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16468,7 +15838,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16503,7 +15877,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16538,7 +15916,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16573,7 +15955,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16608,7 +15994,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16643,7 +16033,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16678,7 +16072,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16713,7 +16111,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16748,7 +16150,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16783,7 +16189,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16818,7 +16228,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16853,7 +16267,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16888,7 +16306,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16923,7 +16345,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16958,7 +16384,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16993,7 +16423,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17028,7 +16462,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17063,7 +16501,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17098,7 +16540,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17133,7 +16579,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17168,7 +16618,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +16657,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17238,7 +16696,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17273,7 +16735,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17308,7 +16774,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17343,7 +16813,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17378,7 +16852,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17413,7 +16891,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17448,7 +16930,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +16969,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17518,7 +17008,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17553,7 +17047,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17588,7 +17086,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17623,7 +17125,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17658,7 +17164,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17693,7 +17203,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17728,7 +17242,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17763,7 +17281,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17798,7 +17320,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17833,7 +17359,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17868,7 +17398,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17903,7 +17437,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17934,14 +17472,16 @@
         <v>0</v>
       </c>
       <c r="I474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
-      <c r="M474" t="n">
-        <v>1</v>
-      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -17969,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
@@ -18004,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
@@ -18179,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
@@ -18214,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
@@ -18249,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
@@ -18284,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
@@ -18319,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
@@ -18354,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
@@ -18389,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>

--- a/BackTest/2019-11-15 BackTest VET.xlsx
+++ b/BackTest/2019-11-15 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>917651.0292911412</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>917651.0292911412</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>7.52</v>
@@ -523,7 +523,7 @@
         <v>918975.5326911412</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>7.52</v>
@@ -562,7 +562,7 @@
         <v>751884.0157911412</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>7.55</v>
@@ -601,7 +601,7 @@
         <v>874921.5564911412</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>7.51</v>
@@ -640,7 +640,7 @@
         <v>874921.5564911412</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>7.53</v>
@@ -679,7 +679,7 @@
         <v>888403.8156911412</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>7.53</v>
@@ -718,7 +718,7 @@
         <v>888403.8156911412</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>7.55</v>
@@ -757,7 +757,7 @@
         <v>875542.5032911411</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>7.55</v>
@@ -796,7 +796,7 @@
         <v>875542.5032911411</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>7.52</v>
@@ -835,7 +835,7 @@
         <v>858152.8222911411</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>7.52</v>
@@ -874,7 +874,7 @@
         <v>233547.4818911412</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7.5</v>
@@ -913,7 +913,7 @@
         <v>-1094073.893108859</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>7.44</v>
@@ -952,7 +952,7 @@
         <v>-1094073.893108859</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>7.43</v>
@@ -991,7 +991,7 @@
         <v>-1091804.893108859</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>7.43</v>
@@ -1030,7 +1030,7 @@
         <v>-1081804.893108859</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>7.46</v>
@@ -1069,7 +1069,7 @@
         <v>-1081804.893108859</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>7.5</v>
@@ -1108,7 +1108,7 @@
         <v>-1597124.443308859</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>7.5</v>
@@ -1147,7 +1147,7 @@
         <v>-1609812.312908859</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>7.49</v>
@@ -1186,7 +1186,7 @@
         <v>-1586156.843508859</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>7.46</v>
@@ -1225,7 +1225,7 @@
         <v>-1589556.988508859</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7.49</v>
@@ -1264,7 +1264,7 @@
         <v>-301164.9859088587</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>7.46</v>
@@ -1303,7 +1303,7 @@
         <v>-301164.9859088587</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>7.51</v>
@@ -1342,7 +1342,7 @@
         <v>-308986.9403088587</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>7.51</v>
@@ -1381,7 +1381,7 @@
         <v>-309386.9403088587</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>7.47</v>
@@ -1420,7 +1420,7 @@
         <v>-309386.9403088587</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>7.46</v>
@@ -1459,7 +1459,7 @@
         <v>-304613.9791088587</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>7.46</v>
@@ -1498,7 +1498,7 @@
         <v>-255443.6214088587</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>7.5</v>
@@ -1537,7 +1537,7 @@
         <v>-255837.7214088587</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>7.51</v>
@@ -1576,7 +1576,7 @@
         <v>-255837.7214088587</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>7.48</v>
@@ -1615,7 +1615,7 @@
         <v>-242710.6437088587</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.48</v>
@@ -1654,7 +1654,7 @@
         <v>-242710.6437088587</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>7.51</v>
@@ -1693,7 +1693,7 @@
         <v>-130484.8732088587</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>7.51</v>
@@ -1732,7 +1732,7 @@
         <v>-100064.4647088587</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>7.52</v>
@@ -1771,7 +1771,7 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>7.54</v>
@@ -1810,7 +1810,7 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>7.56</v>
@@ -1849,7 +1849,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>7.56</v>
@@ -1888,7 +1888,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>7.6</v>
@@ -1927,7 +1927,7 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>7.6</v>
@@ -1966,7 +1966,7 @@
         <v>802452.2915911414</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>7.6</v>
@@ -2005,7 +2005,7 @@
         <v>2124835.957391141</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>7.67</v>
@@ -2044,7 +2044,7 @@
         <v>3480285.648291142</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>7.83</v>
@@ -2083,9 +2083,11 @@
         <v>3480285.648291142</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2675,7 +2677,7 @@
         <v>5921542.479216308</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2823,7 +2825,7 @@
         <v>5192676.741516308</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2971,7 +2973,7 @@
         <v>5916696.284816308</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3082,7 +3084,7 @@
         <v>6645391.767588341</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3119,7 +3121,7 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3156,7 +3158,7 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3193,7 +3195,7 @@
         <v>7381196.672488341</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3267,7 +3269,7 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3304,7 +3306,7 @@
         <v>7466246.175788341</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3341,7 +3343,7 @@
         <v>5279493.163088341</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3415,7 +3417,7 @@
         <v>5131720.818488341</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3563,9 +3565,11 @@
         <v>5895221.306988341</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3637,9 +3641,11 @@
         <v>5706656.853088341</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8.02</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3674,9 +3680,11 @@
         <v>5578933.579888341</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3711,9 +3719,11 @@
         <v>5587158.217088341</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7.99</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -4895,7 +4905,7 @@
         <v>10152520.84688736</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4932,7 +4942,7 @@
         <v>10616128.76958736</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4969,7 +4979,7 @@
         <v>10611837.05118736</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5006,7 +5016,7 @@
         <v>10611837.05118736</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5043,7 +5053,7 @@
         <v>10561837.05118736</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5080,7 +5090,7 @@
         <v>10574684.86448736</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5117,7 +5127,7 @@
         <v>10574684.86448736</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5154,7 +5164,7 @@
         <v>9266703.650487358</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5191,7 +5201,7 @@
         <v>9266703.650487358</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5413,7 +5423,7 @@
         <v>9454522.542311225</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5487,7 +5497,7 @@
         <v>9106974.803511225</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5524,7 +5534,7 @@
         <v>9100474.260111224</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5561,7 +5571,7 @@
         <v>9094987.709411224</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5598,7 +5608,7 @@
         <v>9292761.809411224</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5635,7 +5645,7 @@
         <v>9411828.135611223</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5672,7 +5682,7 @@
         <v>9411828.135611223</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5709,7 +5719,7 @@
         <v>9411828.135611223</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5746,7 +5756,7 @@
         <v>9400433.930711223</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5783,7 +5793,7 @@
         <v>9400433.930711223</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5820,7 +5830,7 @@
         <v>9432507.930711223</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5931,7 +5941,7 @@
         <v>9620804.629011223</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5968,7 +5978,7 @@
         <v>9585405.494611222</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6005,7 +6015,7 @@
         <v>9590007.452711223</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6042,7 +6052,7 @@
         <v>9590130.653311223</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6079,7 +6089,7 @@
         <v>9633979.911911223</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6153,7 +6163,7 @@
         <v>9578703.651620539</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6190,7 +6200,7 @@
         <v>9578703.651620539</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6227,7 +6237,7 @@
         <v>9578703.651620539</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6264,7 +6274,7 @@
         <v>9654949.482420539</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6301,7 +6311,7 @@
         <v>10017890.90348094</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6597,7 +6607,7 @@
         <v>10030447.73845321</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7411,16 +7421,18 @@
         <v>12017338.59316004</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -7446,11 +7458,15 @@
         <v>11988920.92046004</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7495,15 @@
         <v>11778277.29256004</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7532,15 @@
         <v>12205375.07698328</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +7569,15 @@
         <v>14143371.63062409</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7578,11 +7606,15 @@
         <v>14143371.63062409</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +7643,15 @@
         <v>14143371.63062409</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +7680,15 @@
         <v>14143371.63062409</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +7717,15 @@
         <v>13989392.29902409</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +7754,15 @@
         <v>13989392.29902409</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7743,11 +7791,15 @@
         <v>13989392.29902409</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7780,7 +7832,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7813,7 +7869,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7846,7 +7906,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7879,7 +7943,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7912,7 +7980,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7945,7 +8017,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7978,7 +8054,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8011,7 +8091,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8044,7 +8128,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +8165,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8110,7 +8202,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8143,7 +8239,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8176,7 +8276,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8209,7 +8313,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8242,7 +8350,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8275,7 +8387,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8308,7 +8424,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8341,7 +8461,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8374,7 +8498,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8407,7 +8535,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8440,7 +8572,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8609,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8506,7 +8646,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8539,7 +8683,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8572,7 +8720,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8605,7 +8757,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8638,7 +8794,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8671,7 +8831,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8704,7 +8868,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8737,7 +8905,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8770,7 +8942,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8803,7 +8979,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8836,7 +9016,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8869,7 +9053,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8902,7 +9090,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8935,7 +9127,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8968,7 +9164,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9001,7 +9201,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +9238,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9067,7 +9275,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9096,11 +9308,15 @@
         <v>15794750.37720521</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9129,11 +9345,15 @@
         <v>15794750.37720521</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9162,11 +9382,15 @@
         <v>15794750.37720521</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9195,11 +9419,15 @@
         <v>15575046.30950521</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +9456,15 @@
         <v>15874300.51500521</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9261,11 +9493,15 @@
         <v>15874300.51500521</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9298,7 +9534,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9331,7 +9571,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9364,7 +9608,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9393,11 +9641,15 @@
         <v>15178253.85860521</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9430,7 +9682,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9719,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9492,11 +9752,15 @@
         <v>14637573.50470521</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9525,11 +9789,15 @@
         <v>14463138.50470521</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9562,7 +9830,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9595,7 +9867,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9624,11 +9900,15 @@
         <v>14731578.95600521</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9937,15 @@
         <v>14731578.95600521</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9690,11 +9974,15 @@
         <v>14803760.40150521</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +10011,15 @@
         <v>14884610.40150521</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +10048,15 @@
         <v>14884610.40150521</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9789,11 +10085,15 @@
         <v>14891852.13550521</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9822,11 +10122,15 @@
         <v>14896482.28820521</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9859,7 +10163,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9892,7 +10200,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9925,7 +10237,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9954,11 +10270,15 @@
         <v>14952618.03670521</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9991,7 +10311,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10024,7 +10348,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10057,7 +10385,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +10418,15 @@
         <v>14869666.14730521</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10119,11 +10455,15 @@
         <v>14869666.14730521</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10152,11 +10492,15 @@
         <v>14869606.14730521</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10185,11 +10529,15 @@
         <v>14989606.14730521</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10218,11 +10566,15 @@
         <v>14950138.34600521</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10255,7 +10607,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10288,7 +10644,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10321,7 +10681,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10354,7 +10718,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10387,7 +10755,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10420,7 +10792,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10449,11 +10825,15 @@
         <v>13842272.61690521</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10482,11 +10862,15 @@
         <v>13846992.61690521</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10519,7 +10903,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10548,11 +10936,15 @@
         <v>14067333.78752133</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10581,11 +10973,15 @@
         <v>14067100.62142133</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +11010,15 @@
         <v>14028780.54562133</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10651,7 +11051,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +11084,15 @@
         <v>13962487.15222133</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10713,11 +11121,15 @@
         <v>13962593.83422133</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10746,11 +11158,15 @@
         <v>13906669.66352133</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +11195,15 @@
         <v>13967303.92772133</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10812,11 +11232,15 @@
         <v>13969378.09432133</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +11269,15 @@
         <v>14000143.38272133</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10878,11 +11306,15 @@
         <v>14754565.20032133</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10911,11 +11343,15 @@
         <v>14977636.38742133</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +11380,15 @@
         <v>14939573.53532133</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +11417,15 @@
         <v>14941943.89302133</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11014,7 +11458,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11047,7 +11495,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11532,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +11565,15 @@
         <v>14452359.84782133</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11146,7 +11606,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +11643,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11212,7 +11680,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11245,7 +11717,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11274,11 +11750,15 @@
         <v>14821477.73372133</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +11787,15 @@
         <v>15446952.17312133</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11340,11 +11824,15 @@
         <v>15812442.60142133</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +11861,15 @@
         <v>15812442.60142133</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11406,11 +11898,15 @@
         <v>15812442.60142133</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +11935,15 @@
         <v>15672094.33482133</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11472,11 +11972,15 @@
         <v>15996963.81193238</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11505,11 +12009,15 @@
         <v>15945030.30293238</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +12046,15 @@
         <v>16791469.74203238</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11571,11 +12083,15 @@
         <v>16791469.74203238</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11604,11 +12120,15 @@
         <v>16791469.74203238</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11637,11 +12157,15 @@
         <v>16791469.74203238</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11670,11 +12194,15 @@
         <v>16797812.04263238</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11703,14 +12231,16 @@
         <v>16588407.48893238</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -11736,7 +12266,7 @@
         <v>14445736.39243238</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11769,7 +12299,7 @@
         <v>14445736.39243238</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11802,7 +12332,7 @@
         <v>14460671.43723238</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11835,7 +12365,7 @@
         <v>13880017.77003238</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11868,7 +12398,7 @@
         <v>13889625.39463238</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11901,7 +12431,7 @@
         <v>13890998.10843238</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11934,7 +12464,7 @@
         <v>13968935.89333238</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11967,7 +12497,7 @@
         <v>14053819.54183238</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12000,7 +12530,7 @@
         <v>14053819.54183238</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12033,7 +12563,7 @@
         <v>14253049.16683238</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12066,7 +12596,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12099,7 +12629,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12132,7 +12662,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12165,7 +12695,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12198,7 +12728,7 @@
         <v>14262813.24863238</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12231,7 +12761,7 @@
         <v>14322993.10383238</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12264,7 +12794,7 @@
         <v>14410102.64536874</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12297,7 +12827,7 @@
         <v>14351673.17596874</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12330,7 +12860,7 @@
         <v>14351673.17596874</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12363,7 +12893,7 @@
         <v>14351673.17596874</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12396,7 +12926,7 @@
         <v>14302764.50496874</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12429,7 +12959,7 @@
         <v>13895882.12706874</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12462,7 +12992,7 @@
         <v>13568053.87466874</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12495,7 +13025,7 @@
         <v>13556857.87476874</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12528,7 +13058,7 @@
         <v>14066651.79566874</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12561,7 +13091,7 @@
         <v>14058863.30866874</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12594,7 +13124,7 @@
         <v>14058863.30866874</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12627,7 +13157,7 @@
         <v>13968917.72536874</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12660,7 +13190,7 @@
         <v>14011050.68876874</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12693,7 +13223,7 @@
         <v>14018839.17576874</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12726,7 +13256,7 @@
         <v>13081483.90236874</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12759,7 +13289,7 @@
         <v>13084959.76366875</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12792,7 +13322,7 @@
         <v>12891275.93826875</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12825,7 +13355,7 @@
         <v>12689275.93826875</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12858,7 +13388,7 @@
         <v>12689275.93826875</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12891,7 +13421,7 @@
         <v>12689275.93826875</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12924,7 +13454,7 @@
         <v>12558732.53386874</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12957,7 +13487,7 @@
         <v>12558732.53386874</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12990,7 +13520,7 @@
         <v>12558732.53386874</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13023,7 +13553,7 @@
         <v>12691035.89736875</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13056,7 +13586,7 @@
         <v>12729595.57446875</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13089,7 +13619,7 @@
         <v>12722570.66946875</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13122,7 +13652,7 @@
         <v>12990753.67786875</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13155,7 +13685,7 @@
         <v>13010174.88416875</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13188,7 +13718,7 @@
         <v>12961488.01686875</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13221,7 +13751,7 @@
         <v>12958715.27256875</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13254,7 +13784,7 @@
         <v>13240990.16906875</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13287,7 +13817,7 @@
         <v>14342406.25956875</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13320,7 +13850,7 @@
         <v>14020144.10086875</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13353,7 +13883,7 @@
         <v>14181693.58076875</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13386,7 +13916,7 @@
         <v>14312208.50216875</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13419,7 +13949,7 @@
         <v>13230171.26906875</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13452,7 +13982,7 @@
         <v>13235159.92496875</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13485,7 +14015,7 @@
         <v>13341841.16630687</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13518,7 +14048,7 @@
         <v>13341841.16630687</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13551,7 +14081,7 @@
         <v>13330485.13600687</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13584,7 +14114,7 @@
         <v>13330485.13600687</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13650,7 +14180,7 @@
         <v>13539737.58740687</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13683,7 +14213,7 @@
         <v>13539972.51580687</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13716,7 +14246,7 @@
         <v>13441205.19760687</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13749,7 +14279,7 @@
         <v>14054775.97890688</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13782,7 +14312,7 @@
         <v>14019302.95330688</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13815,7 +14345,7 @@
         <v>14019302.95330688</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13848,7 +14378,7 @@
         <v>14019302.95330688</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13881,7 +14411,7 @@
         <v>14019302.95330688</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13914,7 +14444,7 @@
         <v>15594495.27040688</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13947,7 +14477,7 @@
         <v>15626560.16680688</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13980,7 +14510,7 @@
         <v>15605430.16680688</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14013,7 +14543,7 @@
         <v>15605430.16680688</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14046,7 +14576,7 @@
         <v>15605430.16680688</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14079,7 +14609,7 @@
         <v>15605430.16680688</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14112,7 +14642,7 @@
         <v>15605500.16680688</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14607,7 +15137,7 @@
         <v>12335806.80600688</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16059,7 +16589,7 @@
         <v>12151476.19577722</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16092,7 +16622,7 @@
         <v>11809086.90587722</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16158,7 +16688,7 @@
         <v>12751729.78137722</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16191,7 +16721,7 @@
         <v>12663784.47057722</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16224,7 +16754,7 @@
         <v>12663784.47057722</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16587,7 +17117,7 @@
         <v>11916486.42535106</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16620,7 +17150,7 @@
         <v>11682486.42535106</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16653,7 +17183,7 @@
         <v>11603406.58935106</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16851,7 +17381,7 @@
         <v>11432151.43365106</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16884,7 +17414,7 @@
         <v>11432151.43365106</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16917,7 +17447,7 @@
         <v>11336133.00015106</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16983,7 +17513,7 @@
         <v>11315839.53045106</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17049,7 +17579,7 @@
         <v>11346431.53045106</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17808,7 +18338,7 @@
         <v>11393333.83185106</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18732,7 +19262,7 @@
         <v>11653079.81401187</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18798,7 +19328,7 @@
         <v>11478922.25411187</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18831,7 +19361,7 @@
         <v>11475463.80371187</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18864,7 +19394,7 @@
         <v>11167597.47751187</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18897,7 +19427,7 @@
         <v>11245597.47751187</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18930,7 +19460,7 @@
         <v>11596062.20331187</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18963,7 +19493,7 @@
         <v>11160025.12971187</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18996,7 +19526,7 @@
         <v>11273163.74011187</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19029,7 +19559,7 @@
         <v>12239709.38381187</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19062,7 +19592,7 @@
         <v>12239709.38381187</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19095,7 +19625,7 @@
         <v>11562372.91811187</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19128,7 +19658,7 @@
         <v>11562372.91811187</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19161,7 +19691,7 @@
         <v>11562372.91811187</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19194,7 +19724,7 @@
         <v>11883041.32201187</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19227,7 +19757,7 @@
         <v>12008804.05801187</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19260,7 +19790,7 @@
         <v>12329648.78711187</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19293,7 +19823,7 @@
         <v>12329648.78711187</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19326,7 +19856,7 @@
         <v>11855695.74211187</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19392,7 +19922,7 @@
         <v>11206670.45151187</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19425,7 +19955,7 @@
         <v>11321804.42791187</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19458,7 +19988,7 @@
         <v>11251804.42791187</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19491,7 +20021,7 @@
         <v>11252625.83811187</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19524,7 +20054,7 @@
         <v>11206075.20441187</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19557,7 +20087,7 @@
         <v>11206075.20441187</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19590,7 +20120,7 @@
         <v>11123778.25271187</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19623,7 +20153,7 @@
         <v>11255756.93161187</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19656,7 +20186,7 @@
         <v>11256005.07561187</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19689,7 +20219,7 @@
         <v>11115760.82761187</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19722,7 +20252,7 @@
         <v>11121423.34176815</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19755,7 +20285,7 @@
         <v>11121423.34176815</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19788,7 +20318,7 @@
         <v>12483988.50146815</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19821,7 +20351,7 @@
         <v>16645105.16876815</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19854,7 +20384,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19887,7 +20417,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19920,7 +20450,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19953,7 +20483,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19986,7 +20516,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20019,7 +20549,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20052,7 +20582,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20085,7 +20615,7 @@
         <v>23344785.83126815</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20118,7 +20648,7 @@
         <v>23374452.03126815</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20151,7 +20681,7 @@
         <v>23647781.68346815</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20184,7 +20714,7 @@
         <v>23571069.18346815</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20217,7 +20747,7 @@
         <v>24115239.21276815</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20250,7 +20780,7 @@
         <v>20567540.01496815</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20283,7 +20813,7 @@
         <v>19786403.20196815</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20316,7 +20846,7 @@
         <v>19615231.57736815</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20349,7 +20879,7 @@
         <v>19518801.50686815</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20382,7 +20912,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20415,7 +20945,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20448,7 +20978,7 @@
         <v>18903552.41986815</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20481,7 +21011,7 @@
         <v>18903552.41986815</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20514,7 +21044,7 @@
         <v>18809247.00116815</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20547,7 +21077,7 @@
         <v>18812375.86846815</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20580,7 +21110,7 @@
         <v>18804851.72896815</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20613,7 +21143,7 @@
         <v>18906090.92276815</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20646,7 +21176,7 @@
         <v>18810883.53236815</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20679,7 +21209,7 @@
         <v>18815063.51776814</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20712,7 +21242,7 @@
         <v>18815176.51776814</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20745,7 +21275,7 @@
         <v>18798685.51786815</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20778,7 +21308,7 @@
         <v>18952452.87776815</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20811,7 +21341,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20844,7 +21374,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20877,7 +21407,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20910,7 +21440,7 @@
         <v>18870458.13736815</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20943,7 +21473,7 @@
         <v>18908903.13846815</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21471,7 +22001,7 @@
         <v>19801726.75096045</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21504,7 +22034,7 @@
         <v>21702384.67956045</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21537,7 +22067,7 @@
         <v>22086569.08776045</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21570,7 +22100,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21603,7 +22133,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21636,7 +22166,7 @@
         <v>21860257.44799051</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21669,7 +22199,7 @@
         <v>22104156.64449051</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21702,7 +22232,7 @@
         <v>21905390.61021056</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21735,7 +22265,7 @@
         <v>20470313.39201056</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21768,7 +22298,7 @@
         <v>20807547.25571056</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21801,7 +22331,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21834,7 +22364,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21867,7 +22397,7 @@
         <v>20608856.77731056</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21900,7 +22430,7 @@
         <v>20647108.46901056</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21933,7 +22463,7 @@
         <v>21110946.44851056</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21966,7 +22496,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21999,7 +22529,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22032,7 +22562,7 @@
         <v>21018682.9854539</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22065,7 +22595,7 @@
         <v>20855849.4070539</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22098,7 +22628,7 @@
         <v>20668392.41515389</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22131,7 +22661,7 @@
         <v>20634881.66495389</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22164,7 +22694,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22197,7 +22727,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22230,7 +22760,7 @@
         <v>22045702.9546711</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22263,7 +22793,7 @@
         <v>22136050.57060912</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22296,7 +22826,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22329,7 +22859,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22362,7 +22892,7 @@
         <v>21992695.30580912</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22395,7 +22925,7 @@
         <v>21993631.75730912</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22989,7 +23519,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23022,7 +23552,7 @@
         <v>21398347.86819427</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23055,7 +23585,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23088,7 +23618,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23187,7 +23717,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23220,7 +23750,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23286,7 +23816,7 @@
         <v>21498553.395101</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23319,7 +23849,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23418,7 +23948,7 @@
         <v>21341302.410601</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23451,7 +23981,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23484,7 +24014,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23517,7 +24047,7 @@
         <v>21283252.944001</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23550,7 +24080,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23583,7 +24113,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23594,6 +24124,6 @@
       <c r="M678" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest VET.xlsx
+++ b/BackTest/2019-11-15 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1771,11 +1771,9 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1810,11 +1808,9 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1849,11 +1845,9 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1888,11 +1882,9 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1927,11 +1919,9 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1966,11 +1956,9 @@
         <v>802452.2915911414</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2005,11 +1993,9 @@
         <v>2124835.957391141</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2044,11 +2030,9 @@
         <v>3480285.648291142</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,11 +2067,9 @@
         <v>3480285.648291142</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2344,18 +2326,16 @@
         <v>9056026.440346975</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2381,15 +2361,11 @@
         <v>8057916.255978</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2418,15 +2394,11 @@
         <v>7759597.273878001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2455,15 +2427,11 @@
         <v>7350640.766878</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2464,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2497,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2530,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2563,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2596,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2629,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2662,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2695,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2728,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2761,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2794,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2827,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2860,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2973,15 +2889,11 @@
         <v>5916696.284816308</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2926,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2959,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3084,15 +2988,11 @@
         <v>6645391.767588341</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3121,15 +3021,11 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3158,15 +3054,11 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3195,15 +3087,11 @@
         <v>7381196.672488341</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3232,15 +3120,11 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3269,15 +3153,11 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3306,15 +3186,11 @@
         <v>7466246.175788341</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3343,15 +3219,11 @@
         <v>5279493.163088341</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3380,15 +3252,11 @@
         <v>5240524.613888341</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3417,15 +3285,11 @@
         <v>5131720.818488341</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3454,15 +3318,11 @@
         <v>5044533.543788341</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3491,15 +3351,11 @@
         <v>5348759.257188341</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3528,15 +3384,11 @@
         <v>5989990.846988341</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3417,11 @@
         <v>5895221.306988341</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3454,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3641,17 +3483,11 @@
         <v>5706656.853088341</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3680,17 +3516,11 @@
         <v>5578933.579888341</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3719,17 +3549,11 @@
         <v>5587158.217088341</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>7.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3762,11 +3586,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3619,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3652,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3873,11 +3685,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +3718,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +3751,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3784,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +3817,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3850,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +3883,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +3916,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +3949,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +3982,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +4015,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +4048,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4081,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4354,11 +4114,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4391,11 +4147,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4428,11 +4180,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4213,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4502,11 +4246,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4539,11 +4279,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4312,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4345,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4650,11 +4378,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +4411,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4444,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4477,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4510,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +4543,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +4576,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +4609,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4642,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4983,11 +4675,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5020,11 +4708,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +4741,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +4774,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5131,11 +4807,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +4840,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5205,11 +4873,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5242,11 +4906,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5279,11 +4939,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +4972,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5353,11 +5005,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5390,11 +5038,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5427,11 +5071,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5464,11 +5104,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5501,11 +5137,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +5170,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +5203,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5612,11 +5236,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5649,11 +5269,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +5302,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +5335,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5760,11 +5368,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5401,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5434,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5871,11 +5467,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5500,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +5533,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5982,11 +5566,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5599,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6056,11 +5632,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +5665,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +5698,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +5731,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +5764,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6241,11 +5797,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +5830,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6315,11 +5863,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6352,11 +5896,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +5929,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +5962,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +5995,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +6028,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6537,11 +6061,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6574,11 +6094,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +6127,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6648,11 +6160,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +6193,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6226,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6259,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6796,11 +6292,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6833,11 +6325,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6870,11 +6358,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6907,11 +6391,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +6424,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6981,11 +6457,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +6490,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7055,11 +6523,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +6556,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +6589,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7166,11 +6622,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7203,11 +6655,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7240,11 +6688,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7277,11 +6721,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +6754,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +6787,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +6820,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7425,11 +6853,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7462,11 +6886,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7499,11 +6919,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7536,11 +6952,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7573,11 +6985,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7610,11 +7018,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7647,11 +7051,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7684,11 +7084,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7721,11 +7117,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7758,11 +7150,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +7183,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7832,11 +7216,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7869,11 +7249,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7906,11 +7282,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7943,11 +7315,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7980,11 +7348,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8017,11 +7381,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8054,11 +7414,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8091,11 +7447,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8128,11 +7480,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8165,11 +7513,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8202,11 +7546,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +7579,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8276,11 +7612,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +7645,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +7678,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +7711,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8424,11 +7744,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +7777,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8498,11 +7810,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +7843,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +7876,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +7909,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +7942,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8683,11 +7975,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8720,11 +8008,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8757,11 +8041,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +8074,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8831,11 +8107,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8868,11 +8140,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +8173,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8942,11 +8206,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8979,11 +8239,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9016,11 +8272,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9053,11 +8305,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9090,11 +8338,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9127,11 +8371,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9164,11 +8404,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +8437,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +8470,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9275,11 +8503,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9312,11 +8536,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +8569,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +8602,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +8635,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +8668,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +8701,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9534,11 +8734,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9571,11 +8767,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +8800,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +8833,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +8866,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +8899,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +8932,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9793,11 +8965,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9830,11 +8998,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9867,11 +9031,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +9064,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9941,11 +9097,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9978,11 +9130,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10015,11 +9163,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +9196,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10089,11 +9229,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +9262,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10163,11 +9295,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10200,11 +9328,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +9361,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10274,11 +9394,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10311,11 +9427,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +9460,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +9493,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +9526,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10459,11 +9559,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +9592,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10533,11 +9625,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10570,11 +9658,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10607,11 +9691,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10644,11 +9724,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +9757,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10718,11 +9790,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10755,11 +9823,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +9856,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10829,11 +9889,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10866,11 +9922,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +9955,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +9988,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +10021,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11014,11 +10054,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11051,11 +10087,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11088,11 +10120,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11125,11 +10153,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11162,11 +10186,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11199,11 +10219,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11236,11 +10252,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11273,11 +10285,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11310,11 +10318,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11347,11 +10351,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11384,11 +10384,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11421,11 +10417,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11458,11 +10450,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11495,11 +10483,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11532,11 +10516,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11569,11 +10549,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11606,11 +10582,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11643,11 +10615,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11680,11 +10648,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11717,11 +10681,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +10714,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11791,11 +10747,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11828,11 +10780,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11865,11 +10813,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +10846,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11939,11 +10879,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11976,11 +10912,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12013,11 +10945,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12050,11 +10978,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12087,11 +11011,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12124,11 +11044,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12161,11 +11077,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12198,11 +11110,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12231,16 +11139,14 @@
         <v>16588407.48893238</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
       <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -12266,7 +11172,7 @@
         <v>14445736.39243238</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12299,7 +11205,7 @@
         <v>14445736.39243238</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12332,7 +11238,7 @@
         <v>14460671.43723238</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12365,7 +11271,7 @@
         <v>13880017.77003238</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12398,7 +11304,7 @@
         <v>13889625.39463238</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12431,7 +11337,7 @@
         <v>13890998.10843238</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12464,7 +11370,7 @@
         <v>13968935.89333238</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12497,7 +11403,7 @@
         <v>14053819.54183238</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12530,7 +11436,7 @@
         <v>14053819.54183238</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12563,7 +11469,7 @@
         <v>14253049.16683238</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12596,7 +11502,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12629,7 +11535,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12662,7 +11568,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12695,7 +11601,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12728,7 +11634,7 @@
         <v>14262813.24863238</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12761,7 +11667,7 @@
         <v>14322993.10383238</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12794,7 +11700,7 @@
         <v>14410102.64536874</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12827,7 +11733,7 @@
         <v>14351673.17596874</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12860,7 +11766,7 @@
         <v>14351673.17596874</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12893,7 +11799,7 @@
         <v>14351673.17596874</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12926,7 +11832,7 @@
         <v>14302764.50496874</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12959,7 +11865,7 @@
         <v>13895882.12706874</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12992,7 +11898,7 @@
         <v>13568053.87466874</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13025,7 +11931,7 @@
         <v>13556857.87476874</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13058,7 +11964,7 @@
         <v>14066651.79566874</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13091,7 +11997,7 @@
         <v>14058863.30866874</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13124,7 +12030,7 @@
         <v>14058863.30866874</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13157,7 +12063,7 @@
         <v>13968917.72536874</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13190,7 +12096,7 @@
         <v>14011050.68876874</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13223,7 +12129,7 @@
         <v>14018839.17576874</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13256,7 +12162,7 @@
         <v>13081483.90236874</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13289,7 +12195,7 @@
         <v>13084959.76366875</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13322,7 +12228,7 @@
         <v>12891275.93826875</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13355,7 +12261,7 @@
         <v>12689275.93826875</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13388,7 +12294,7 @@
         <v>12689275.93826875</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13421,7 +12327,7 @@
         <v>12689275.93826875</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13454,7 +12360,7 @@
         <v>12558732.53386874</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13487,7 +12393,7 @@
         <v>12558732.53386874</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13520,7 +12426,7 @@
         <v>12558732.53386874</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13553,7 +12459,7 @@
         <v>12691035.89736875</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13586,7 +12492,7 @@
         <v>12729595.57446875</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13619,7 +12525,7 @@
         <v>12722570.66946875</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13652,7 +12558,7 @@
         <v>12990753.67786875</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13685,7 +12591,7 @@
         <v>13010174.88416875</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13718,7 +12624,7 @@
         <v>12961488.01686875</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13751,7 +12657,7 @@
         <v>12958715.27256875</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13784,7 +12690,7 @@
         <v>13240990.16906875</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14015,7 +12921,7 @@
         <v>13341841.16630687</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14048,7 +12954,7 @@
         <v>13341841.16630687</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -15137,7 +14043,7 @@
         <v>12335806.80600688</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -19922,7 +18828,7 @@
         <v>11206670.45151187</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19955,7 +18861,7 @@
         <v>11321804.42791187</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19988,7 +18894,7 @@
         <v>11251804.42791187</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20021,7 +18927,7 @@
         <v>11252625.83811187</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20054,7 +18960,7 @@
         <v>11206075.20441187</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20087,7 +18993,7 @@
         <v>11206075.20441187</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20120,7 +19026,7 @@
         <v>11123778.25271187</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20153,7 +19059,7 @@
         <v>11255756.93161187</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20186,7 +19092,7 @@
         <v>11256005.07561187</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20219,7 +19125,7 @@
         <v>11115760.82761187</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20252,7 +19158,7 @@
         <v>11121423.34176815</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20285,7 +19191,7 @@
         <v>11121423.34176815</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20318,7 +19224,7 @@
         <v>12483988.50146815</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20351,7 +19257,7 @@
         <v>16645105.16876815</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20384,7 +19290,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20417,7 +19323,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20450,7 +19356,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20483,7 +19389,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20516,7 +19422,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20549,7 +19455,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20582,7 +19488,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20615,7 +19521,7 @@
         <v>23344785.83126815</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20648,7 +19554,7 @@
         <v>23374452.03126815</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20681,7 +19587,7 @@
         <v>23647781.68346815</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20714,7 +19620,7 @@
         <v>23571069.18346815</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20747,7 +19653,7 @@
         <v>24115239.21276815</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20780,7 +19686,7 @@
         <v>20567540.01496815</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20813,7 +19719,7 @@
         <v>19786403.20196815</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20846,7 +19752,7 @@
         <v>19615231.57736815</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20879,7 +19785,7 @@
         <v>19518801.50686815</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20912,7 +19818,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20945,7 +19851,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20978,7 +19884,7 @@
         <v>18903552.41986815</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21011,7 +19917,7 @@
         <v>18903552.41986815</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21044,7 +19950,7 @@
         <v>18809247.00116815</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21077,7 +19983,7 @@
         <v>18812375.86846815</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21110,7 +20016,7 @@
         <v>18804851.72896815</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21143,7 +20049,7 @@
         <v>18906090.92276815</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21176,7 +20082,7 @@
         <v>18810883.53236815</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21209,7 +20115,7 @@
         <v>18815063.51776814</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21242,7 +20148,7 @@
         <v>18815176.51776814</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21275,7 +20181,7 @@
         <v>18798685.51786815</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21308,7 +20214,7 @@
         <v>18952452.87776815</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21341,7 +20247,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21374,7 +20280,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21407,7 +20313,7 @@
         <v>18907160.88786815</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21440,7 +20346,7 @@
         <v>18870458.13736815</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21473,7 +20379,7 @@
         <v>18908903.13846815</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22001,7 +20907,7 @@
         <v>19801726.75096045</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22034,7 +20940,7 @@
         <v>21702384.67956045</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22067,7 +20973,7 @@
         <v>22086569.08776045</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22100,7 +21006,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22133,7 +21039,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22166,7 +21072,7 @@
         <v>21860257.44799051</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22199,7 +21105,7 @@
         <v>22104156.64449051</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22232,7 +21138,7 @@
         <v>21905390.61021056</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22265,7 +21171,7 @@
         <v>20470313.39201056</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22298,7 +21204,7 @@
         <v>20807547.25571056</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22331,7 +21237,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22364,7 +21270,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22397,7 +21303,7 @@
         <v>20608856.77731056</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22430,7 +21336,7 @@
         <v>20647108.46901056</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22463,7 +21369,7 @@
         <v>21110946.44851056</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22496,7 +21402,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22529,7 +21435,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22562,7 +21468,7 @@
         <v>21018682.9854539</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22595,7 +21501,7 @@
         <v>20855849.4070539</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22628,7 +21534,7 @@
         <v>20668392.41515389</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22661,7 +21567,7 @@
         <v>20634881.66495389</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22694,7 +21600,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22727,7 +21633,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22760,7 +21666,7 @@
         <v>22045702.9546711</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22793,7 +21699,7 @@
         <v>22136050.57060912</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22925,7 +21831,7 @@
         <v>21993631.75730912</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23981,7 +22887,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24014,7 +22920,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24047,7 +22953,7 @@
         <v>21283252.944001</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24080,7 +22986,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24113,7 +23019,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24124,6 +23030,6 @@
       <c r="M678" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest VET.xlsx
+++ b/BackTest/2019-11-15 BackTest VET.xlsx
@@ -1771,9 +1771,11 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.54</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1808,9 +1810,11 @@
         <v>55935.53529114131</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.56</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1845,9 +1849,11 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.56</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1882,9 +1888,11 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.6</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1919,9 +1927,11 @@
         <v>255935.5352911413</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.6</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1956,9 +1966,11 @@
         <v>802452.2915911414</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.6</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1993,9 +2005,11 @@
         <v>2124835.957391141</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.67</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2326,16 +2340,18 @@
         <v>9056026.440346975</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2361,11 +2377,15 @@
         <v>8057916.255978</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2394,11 +2414,15 @@
         <v>7759597.273878001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2427,11 +2451,15 @@
         <v>7350640.766878</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2464,7 +2492,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2497,7 +2529,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2530,7 +2566,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2563,7 +2603,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2596,7 +2640,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2629,7 +2677,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2662,7 +2714,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2695,7 +2751,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,7 +2788,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2761,7 +2825,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2794,7 +2862,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2827,7 +2899,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2860,7 +2936,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2889,11 +2969,15 @@
         <v>5916696.284816308</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2926,7 +3010,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2959,7 +3047,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2988,11 +3080,15 @@
         <v>6645391.767588341</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +3117,15 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3054,11 +3154,15 @@
         <v>7346432.375488341</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3087,11 +3191,15 @@
         <v>7381196.672488341</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3120,11 +3228,15 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +3265,15 @@
         <v>7484791.046288341</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3186,11 +3302,15 @@
         <v>7466246.175788341</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +3339,15 @@
         <v>5279493.163088341</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3252,11 +3376,15 @@
         <v>5240524.613888341</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3413,15 @@
         <v>5131720.818488341</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3318,11 +3450,15 @@
         <v>5044533.543788341</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3487,15 @@
         <v>5348759.257188341</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +3524,15 @@
         <v>5989990.846988341</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3561,15 @@
         <v>5895221.306988341</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3454,7 +3602,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3487,7 +3639,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3520,7 +3676,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3553,7 +3713,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3586,7 +3750,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3619,7 +3787,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3652,7 +3824,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3685,7 +3861,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3718,7 +3898,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3751,7 +3935,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3784,7 +3972,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3817,7 +4009,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3850,7 +4046,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3883,7 +4083,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3916,7 +4120,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3949,7 +4157,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3982,7 +4194,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4015,7 +4231,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4048,7 +4268,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4081,7 +4305,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4114,7 +4342,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4147,7 +4379,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4180,7 +4416,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4213,7 +4453,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4246,7 +4490,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4279,7 +4527,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4312,7 +4564,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4345,7 +4601,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4638,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4411,7 +4675,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4444,7 +4712,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4477,7 +4749,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4510,7 +4786,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4543,7 +4823,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4576,7 +4860,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4609,7 +4897,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4642,7 +4934,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4675,7 +4971,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4708,7 +5008,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4741,7 +5045,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4774,7 +5082,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4807,7 +5119,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4840,7 +5156,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4873,7 +5193,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4906,7 +5230,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4939,7 +5267,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4972,7 +5304,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5005,7 +5341,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5038,7 +5378,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5071,7 +5415,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5104,7 +5452,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5137,7 +5489,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5170,7 +5526,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5203,7 +5563,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5236,7 +5600,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5269,7 +5637,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5302,7 +5674,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5335,7 +5711,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5368,7 +5748,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5401,7 +5785,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5434,7 +5822,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5467,7 +5859,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5500,7 +5896,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5933,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5566,7 +5970,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5599,7 +6007,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5632,7 +6044,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5665,7 +6081,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5698,7 +6118,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5731,7 +6155,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5764,7 +6192,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5797,7 +6229,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5830,7 +6266,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5863,7 +6303,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5896,7 +6340,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5929,7 +6377,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5962,7 +6414,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5995,7 +6451,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6028,7 +6488,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6061,7 +6525,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6094,7 +6562,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6127,7 +6599,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6160,7 +6636,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6193,7 +6673,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6226,7 +6710,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6259,7 +6747,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6292,7 +6784,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6325,7 +6821,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6358,7 +6858,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6391,7 +6895,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6424,7 +6932,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6457,7 +6969,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6490,7 +7006,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6523,7 +7043,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6556,7 +7080,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6589,7 +7117,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6622,7 +7154,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6655,7 +7191,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +7228,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6721,7 +7265,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6754,7 +7302,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6787,7 +7339,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6820,7 +7376,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6853,7 +7413,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6886,7 +7450,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6919,7 +7487,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6952,7 +7524,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6985,7 +7561,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7018,7 +7598,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7051,7 +7635,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7084,7 +7672,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7117,7 +7709,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7150,7 +7746,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7183,7 +7783,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7216,7 +7820,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7249,7 +7857,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7282,7 +7894,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7315,7 +7931,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7348,7 +7968,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7381,7 +8005,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7414,7 +8042,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7447,7 +8079,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7480,7 +8116,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7513,7 +8153,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7546,7 +8190,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7579,7 +8227,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7612,7 +8264,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7645,7 +8301,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7678,7 +8338,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7711,7 +8375,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7744,7 +8412,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7777,7 +8449,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7810,7 +8486,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8523,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7876,7 +8560,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7909,7 +8597,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7942,7 +8634,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7975,7 +8671,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8008,7 +8708,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8041,7 +8745,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8074,7 +8782,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8107,7 +8819,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8140,7 +8856,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8173,7 +8893,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8206,7 +8930,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8239,7 +8967,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8272,7 +9004,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8305,7 +9041,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8338,7 +9078,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8371,7 +9115,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8404,7 +9152,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8437,7 +9189,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8470,7 +9226,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8503,7 +9263,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8536,7 +9300,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8569,7 +9337,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +9374,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8635,7 +9411,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8668,7 +9448,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8701,7 +9485,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8734,7 +9522,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8767,7 +9559,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8800,7 +9596,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8833,7 +9633,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8866,7 +9670,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8899,7 +9707,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8932,7 +9744,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8965,7 +9781,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9818,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9031,7 +9855,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9064,7 +9892,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9097,7 +9929,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9130,7 +9966,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9163,7 +10003,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9196,7 +10040,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9229,7 +10077,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9262,7 +10114,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9295,7 +10151,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9328,7 +10188,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9361,7 +10225,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9394,7 +10262,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9427,7 +10299,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9460,7 +10336,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9493,7 +10373,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9526,7 +10410,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9559,7 +10447,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9592,7 +10484,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9625,7 +10521,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9658,7 +10558,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9691,7 +10595,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9724,7 +10632,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9757,7 +10669,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9790,7 +10706,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9823,7 +10743,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9856,7 +10780,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9889,7 +10817,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9922,7 +10854,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9955,7 +10891,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9988,7 +10928,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10021,7 +10965,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10054,7 +11002,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10087,7 +11039,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10120,7 +11076,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +11113,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10186,7 +11150,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10219,7 +11187,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10252,7 +11224,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10285,7 +11261,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10318,7 +11298,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10351,7 +11335,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10384,7 +11372,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10417,7 +11409,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10450,7 +11446,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10483,7 +11483,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10516,7 +11520,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10549,7 +11557,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10582,7 +11594,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10615,7 +11631,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10648,7 +11668,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10681,7 +11705,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10714,7 +11742,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10747,7 +11779,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10780,7 +11816,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10813,7 +11853,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10846,7 +11890,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10879,7 +11927,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10912,7 +11964,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10945,7 +12001,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10978,7 +12038,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11011,7 +12075,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11044,7 +12112,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11073,14 +12145,16 @@
         <v>16791469.74203238</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
@@ -11106,7 +12180,7 @@
         <v>16797812.04263238</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11139,7 +12213,7 @@
         <v>16588407.48893238</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11172,7 +12246,7 @@
         <v>14445736.39243238</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11502,7 +12576,7 @@
         <v>14266136.28753238</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11634,7 +12708,7 @@
         <v>14262813.24863238</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -19323,7 +20397,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19356,7 +20430,7 @@
         <v>22981672.12076815</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19389,7 +20463,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19422,7 +20496,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19455,7 +20529,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19488,7 +20562,7 @@
         <v>24391121.33966815</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19521,7 +20595,7 @@
         <v>23344785.83126815</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19554,7 +20628,7 @@
         <v>23374452.03126815</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19587,7 +20661,7 @@
         <v>23647781.68346815</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19620,7 +20694,7 @@
         <v>23571069.18346815</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19653,7 +20727,7 @@
         <v>24115239.21276815</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19686,7 +20760,7 @@
         <v>20567540.01496815</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19719,7 +20793,7 @@
         <v>19786403.20196815</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19752,7 +20826,7 @@
         <v>19615231.57736815</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19785,7 +20859,7 @@
         <v>19518801.50686815</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19818,7 +20892,7 @@
         <v>19527961.50686815</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20115,7 +21189,7 @@
         <v>18815063.51776814</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20148,7 +21222,7 @@
         <v>18815176.51776814</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20181,7 +21255,7 @@
         <v>18798685.51786815</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20808,7 +21882,7 @@
         <v>19678075.47206045</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20841,7 +21915,7 @@
         <v>19733584.96186045</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20874,7 +21948,7 @@
         <v>19762143.84346045</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20907,7 +21981,7 @@
         <v>19801726.75096045</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20940,7 +22014,7 @@
         <v>21702384.67956045</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20973,7 +22047,7 @@
         <v>22086569.08776045</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21006,7 +22080,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21039,7 +22113,7 @@
         <v>22110396.31176045</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21072,7 +22146,7 @@
         <v>21860257.44799051</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21105,7 +22179,7 @@
         <v>22104156.64449051</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21138,7 +22212,7 @@
         <v>21905390.61021056</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21171,7 +22245,7 @@
         <v>20470313.39201056</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21204,7 +22278,7 @@
         <v>20807547.25571056</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21237,7 +22311,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21270,7 +22344,7 @@
         <v>20607410.66481056</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21303,7 +22377,7 @@
         <v>20608856.77731056</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21336,7 +22410,7 @@
         <v>20647108.46901056</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21369,7 +22443,7 @@
         <v>21110946.44851056</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21402,7 +22476,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21435,7 +22509,7 @@
         <v>21013083.88131056</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21468,7 +22542,7 @@
         <v>21018682.9854539</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21501,7 +22575,7 @@
         <v>20855849.4070539</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21534,7 +22608,7 @@
         <v>20668392.41515389</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21567,7 +22641,7 @@
         <v>20634881.66495389</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21600,7 +22674,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21633,7 +22707,7 @@
         <v>22326677.0642711</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21666,7 +22740,7 @@
         <v>22045702.9546711</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21699,7 +22773,7 @@
         <v>22136050.57060912</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21732,7 +22806,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21765,7 +22839,7 @@
         <v>22132132.30580912</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21798,7 +22872,7 @@
         <v>21992695.30580912</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21831,7 +22905,7 @@
         <v>21993631.75730912</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21864,7 +22938,7 @@
         <v>21981191.50760912</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21897,7 +22971,7 @@
         <v>21981191.50760912</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21930,7 +23004,7 @@
         <v>21839787.33010912</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21963,7 +23037,7 @@
         <v>21478458.34240912</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21996,7 +23070,7 @@
         <v>21132856.52140912</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22029,7 +23103,7 @@
         <v>20792329.53190912</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22062,7 +23136,7 @@
         <v>20792329.53190912</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22095,7 +23169,7 @@
         <v>20936422.91110912</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22128,7 +23202,7 @@
         <v>21137019.82130912</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22161,7 +23235,7 @@
         <v>21352113.23390912</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22194,7 +23268,7 @@
         <v>21359880.57740912</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22227,7 +23301,7 @@
         <v>21359680.87740912</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22260,7 +23334,7 @@
         <v>21359880.57740912</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22293,7 +23367,7 @@
         <v>21383991.82390912</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22326,7 +23400,7 @@
         <v>21383805.06820912</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22359,7 +23433,7 @@
         <v>21384231.31310912</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22392,7 +23466,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22425,7 +23499,7 @@
         <v>21160138.48060912</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22458,7 +23532,7 @@
         <v>21398347.86819427</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22491,7 +23565,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22524,7 +23598,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22557,7 +23631,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22590,7 +23664,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22623,7 +23697,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22656,7 +23730,7 @@
         <v>21172058.15909427</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22689,7 +23763,7 @@
         <v>21498625.506401</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22722,7 +23796,7 @@
         <v>21498553.395101</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22755,7 +23829,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22788,7 +23862,7 @@
         <v>21320553.395101</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22821,7 +23895,7 @@
         <v>21320937.716201</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22854,7 +23928,7 @@
         <v>21341302.410601</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22887,7 +23961,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22920,7 +23994,7 @@
         <v>21267016.602601</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22953,7 +24027,7 @@
         <v>21283252.944001</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22986,7 +24060,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23019,7 +24093,7 @@
         <v>21282601.070801</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
